--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="第03天" sheetId="4" r:id="rId4"/>
     <sheet name="第04天" sheetId="5" r:id="rId5"/>
     <sheet name="第05天" sheetId="7" r:id="rId6"/>
-    <sheet name="方格紙 (2)" sheetId="8" r:id="rId7"/>
-    <sheet name="方格紙" sheetId="6" r:id="rId8"/>
+    <sheet name="第06天" sheetId="10" r:id="rId7"/>
+    <sheet name="方格紙 (2)" sheetId="8" r:id="rId8"/>
+    <sheet name="方格紙" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="112">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -656,12 +657,16 @@
     <t>※ list1和list2都空了，迴圈結束</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Figure 1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +778,29 @@
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1110,15 +1138,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,6 +1297,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,6 +1327,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,9 +1353,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,34 +1372,11 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8558,6 +8593,1269 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>615179</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="橢圓 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3558539" y="314325"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335279</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>74159</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="橢圓 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029199" y="314325"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="橢圓 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6499859" y="314325"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594359</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333239</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="橢圓 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7970519" y="314325"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462779</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="橢圓 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9441179" y="314325"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>615179</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335279</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線單箭頭接點 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="6"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638539" y="854325"/>
+          <a:ext cx="390660" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>74159</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線單箭頭接點 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="6"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6109199" y="854325"/>
+          <a:ext cx="390660" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203699</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594359</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線單箭頭接點 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="6"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7579859" y="854325"/>
+          <a:ext cx="390660" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333239</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線單箭頭接點 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="6"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9050519" y="854325"/>
+          <a:ext cx="390660" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160019</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>569459</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="橢圓 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3512819" y="2381250"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293369</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4987289" y="2381250"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426719</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="橢圓 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6461759" y="2381250"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560069</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298949</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="橢圓 41"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7936229" y="2381250"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417059</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="橢圓 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9395459" y="2381250"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>569459</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293369</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線單箭頭接點 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="6"/>
+          <a:endCxn id="31" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592819" y="2921250"/>
+          <a:ext cx="394470" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426719</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線單箭頭接點 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="6"/>
+          <a:endCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067289" y="2921250"/>
+          <a:ext cx="394470" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560069</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線單箭頭接點 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="6"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7541759" y="2921250"/>
+          <a:ext cx="394470" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298949</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線單箭頭接點 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="6"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9016229" y="2921250"/>
+          <a:ext cx="379230" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>423409</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="向下箭號 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6878955" y="1609725"/>
+          <a:ext cx="250054" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -9015,8 +10313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12124,7 +13422,7 @@
   <dimension ref="K1:AM349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
@@ -12169,12 +13467,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="55"/>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -12199,15 +13497,15 @@
     <row r="3" spans="11:39" ht="15.6" customHeight="1">
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="67"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -12234,11 +13532,11 @@
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="61"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="70"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -12265,11 +13563,11 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="48"/>
       <c r="U5" s="47" t="s">
         <v>100</v>
@@ -12296,26 +13594,26 @@
     <row r="6" spans="11:39" ht="15.6" customHeight="1">
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="70"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
-      <c r="Y6" s="49" t="s">
+      <c r="Y6" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="51"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="55"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
@@ -12340,15 +13638,15 @@
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="52" t="s">
+      <c r="V7" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="53"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="67"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
@@ -12375,11 +13673,11 @@
       <c r="U8" s="48"/>
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="61"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
@@ -12406,11 +13704,11 @@
       <c r="U9" s="48"/>
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="64"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="73"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
@@ -12435,26 +13733,26 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="65" t="s">
+      <c r="V10" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="66"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="70"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
       <c r="AF10" s="48"/>
       <c r="AG10" s="48"/>
-      <c r="AH10" s="49" t="s">
+      <c r="AH10" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="51"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="55"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48"/>
     </row>
@@ -12479,15 +13777,15 @@
       <c r="AB11" s="48"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="52" t="s">
+      <c r="AE11" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="67"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48"/>
     </row>
@@ -12514,11 +13812,11 @@
       <c r="AD12" s="48"/>
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="61"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="70"/>
       <c r="AL12" s="48"/>
       <c r="AM12" s="48"/>
     </row>
@@ -12545,11 +13843,11 @@
       <c r="AD13" s="48"/>
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="64"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="73"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48"/>
     </row>
@@ -12574,15 +13872,15 @@
       <c r="AB14" s="48"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="65" t="s">
+      <c r="AE14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="68"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="70"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="64"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -12661,7 +13959,7 @@
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
       <c r="V17" s="48"/>
-      <c r="W17" s="71" t="s">
+      <c r="W17" s="50" t="s">
         <v>34</v>
       </c>
       <c r="X17" s="48"/>
@@ -13283,7 +14581,7 @@
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
       <c r="V37" s="48"/>
-      <c r="W37" s="71" t="s">
+      <c r="W37" s="50" t="s">
         <v>24</v>
       </c>
       <c r="X37" s="48"/>
@@ -13526,7 +14824,7 @@
       <c r="M45" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="N45" s="72"/>
+      <c r="N45" s="51"/>
       <c r="O45" s="48"/>
       <c r="P45" s="48"/>
       <c r="Q45" s="48"/>
@@ -13682,7 +14980,7 @@
     <row r="50" spans="11:39" ht="15.6" customHeight="1">
       <c r="K50" s="48"/>
       <c r="L50" s="48"/>
-      <c r="M50" s="72"/>
+      <c r="M50" s="51"/>
       <c r="N50" s="48"/>
       <c r="O50" s="48"/>
       <c r="P50" s="48"/>
@@ -14092,7 +15390,7 @@
       <c r="M63" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="N63" s="72"/>
+      <c r="N63" s="51"/>
       <c r="O63" s="48"/>
       <c r="P63" s="48"/>
       <c r="Q63" s="48"/>
@@ -14751,7 +16049,7 @@
       <c r="M84" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="N84" s="72"/>
+      <c r="N84" s="51"/>
       <c r="O84" s="48"/>
       <c r="P84" s="48"/>
       <c r="Q84" s="48"/>
@@ -15379,7 +16677,7 @@
       <c r="M104" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="N104" s="72"/>
+      <c r="N104" s="51"/>
       <c r="O104" s="48"/>
       <c r="P104" s="48"/>
       <c r="Q104" s="48"/>
@@ -16007,7 +17305,7 @@
       <c r="M124" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="N124" s="72"/>
+      <c r="N124" s="51"/>
       <c r="O124" s="48"/>
       <c r="P124" s="48"/>
       <c r="Q124" s="48"/>
@@ -16635,7 +17933,7 @@
       <c r="M144" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="N144" s="72"/>
+      <c r="N144" s="51"/>
       <c r="O144" s="48"/>
       <c r="P144" s="48"/>
       <c r="Q144" s="48"/>
@@ -17263,7 +18561,7 @@
       <c r="M164" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="N164" s="72"/>
+      <c r="N164" s="51"/>
       <c r="O164" s="48"/>
       <c r="P164" s="48"/>
       <c r="Q164" s="48"/>
@@ -17492,13 +18790,13 @@
       <c r="S171" s="48"/>
       <c r="T171" s="48"/>
       <c r="U171" s="48"/>
-      <c r="V171" s="72"/>
+      <c r="V171" s="51"/>
       <c r="W171" s="48"/>
-      <c r="X171" s="71" t="s">
+      <c r="X171" s="50" t="s">
         <v>47</v>
       </c>
       <c r="Y171" s="48"/>
-      <c r="Z171" s="72"/>
+      <c r="Z171" s="51"/>
       <c r="AA171" s="48"/>
       <c r="AB171" s="48"/>
       <c r="AC171" s="48"/>
@@ -23041,13 +24339,13 @@
     <mergeCell ref="AH11:AK13"/>
     <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V10:X10"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V10:X10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23058,19 +24356,306 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="16384" width="2.8984375" style="45"/>
-  </cols>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="6:16">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="6:16">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="6:16">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="6:16">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="6:16">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="6:16">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="6:16">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="6:16">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="6:16">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="6:16">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="6:16">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="6:16">
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="6:16">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="6:16">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="6:16">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="6:16">
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="6:16">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="6:16">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+    </row>
+    <row r="19" spans="6:16">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+    </row>
+    <row r="20" spans="6:16">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="6:16">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" spans="6:16">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23090,4 +24675,22 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="16384" width="2.8984375" style="45"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="第04天" sheetId="5" r:id="rId5"/>
     <sheet name="第05天" sheetId="7" r:id="rId6"/>
     <sheet name="第06天" sheetId="10" r:id="rId7"/>
-    <sheet name="方格紙 (2)" sheetId="8" r:id="rId8"/>
-    <sheet name="方格紙" sheetId="6" r:id="rId9"/>
+    <sheet name="第07天" sheetId="11" r:id="rId8"/>
+    <sheet name="方格紙 (2)" sheetId="8" r:id="rId9"/>
+    <sheet name="方格紙" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="117">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -661,12 +662,31 @@
     <t>Figure 1</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>5 / 2 = 2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>n = 5</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 / 2 = 3</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 1</t>
+  </si>
+  <si>
+    <t>n = 6</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +821,30 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1138,7 +1182,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,8 +1192,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1336,15 +1383,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,8 +1410,30 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="一般 2" xfId="3"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
@@ -9856,6 +9916,1793 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474990</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="橢圓 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="2476500"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96393</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361833</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4790313" y="2476500"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653796</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>248676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="橢圓 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6018276" y="2476500"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540639</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>135519</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="橢圓 41"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7246239" y="2476500"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>427482</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22362</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="橢圓 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8474202" y="2476500"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474990</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96393</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線單箭頭接點 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4498350" y="2944500"/>
+          <a:ext cx="291963" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361833</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653796</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線單箭頭接點 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5726313" y="2944500"/>
+          <a:ext cx="291963" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>248676</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540639</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線單箭頭接點 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6954276" y="2944500"/>
+          <a:ext cx="291963" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>135519</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>427482</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線單箭頭接點 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8182239" y="2944500"/>
+          <a:ext cx="291963" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579765</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="橢圓 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9702165" y="2476500"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22362</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>201300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線單箭頭接點 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="6"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410202" y="2944500"/>
+          <a:ext cx="291963" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="橢圓 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="657225"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>362595</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="657225"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="橢圓 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019800" y="657225"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137805</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="橢圓 41"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="657225"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25410</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="橢圓 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="657225"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474990</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線單箭頭接點 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="6"/>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4498350" y="1125225"/>
+          <a:ext cx="292725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>362595</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線單箭頭接點 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="6"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5727075" y="1125225"/>
+          <a:ext cx="292725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線單箭頭接點 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="6"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6955800" y="1125225"/>
+          <a:ext cx="292725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137805</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線單箭頭接點 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="6"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8184525" y="1125225"/>
+          <a:ext cx="292725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514724" y="1495424"/>
+          <a:ext cx="975361" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INDEX 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4747259" y="1495424"/>
+          <a:ext cx="975361" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INDEX 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>630554</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5995034" y="1495424"/>
+          <a:ext cx="960121" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INDEX 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>521969</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7227569" y="1495424"/>
+          <a:ext cx="960121" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INDEX 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>413384</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8460104" y="1495424"/>
+          <a:ext cx="960121" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INDEX 4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9692639" y="1495424"/>
+          <a:ext cx="975361" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INDEX 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -10309,6 +12156,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="16384" width="2.8984375" style="45"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M38"/>
@@ -13502,10 +15367,10 @@
       </c>
       <c r="N3" s="57"/>
       <c r="O3" s="58"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="67"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -13533,10 +15398,10 @@
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="70"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="67"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -13564,10 +15429,10 @@
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="48"/>
       <c r="U5" s="47" t="s">
         <v>100</v>
@@ -13599,10 +15464,10 @@
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
@@ -13643,10 +15508,10 @@
       </c>
       <c r="W7" s="57"/>
       <c r="X7" s="58"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="67"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="64"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
@@ -13674,10 +15539,10 @@
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="70"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="67"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
@@ -13705,10 +15570,10 @@
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
       <c r="X9" s="49"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="73"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="70"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
@@ -13738,10 +15603,10 @@
       </c>
       <c r="W10" s="60"/>
       <c r="X10" s="61"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="73"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
@@ -13782,10 +15647,10 @@
       </c>
       <c r="AF11" s="57"/>
       <c r="AG11" s="58"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="67"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="64"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48"/>
     </row>
@@ -13813,10 +15678,10 @@
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="70"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="67"/>
       <c r="AL12" s="48"/>
       <c r="AM12" s="48"/>
     </row>
@@ -13844,10 +15709,10 @@
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
       <c r="AG13" s="49"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="73"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="70"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48"/>
     </row>
@@ -13877,10 +15742,10 @@
       </c>
       <c r="AF14" s="60"/>
       <c r="AG14" s="61"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="64"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="73"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -24331,6 +26196,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AE14:AG14"/>
@@ -24341,11 +26211,6 @@
     <mergeCell ref="AH14:AK14"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="Y6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24358,7 +26223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -24661,19 +26526,299 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="16384" width="2.8984375" style="45"/>
-  </cols>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="6:16">
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+    </row>
+    <row r="2" spans="6:16">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+    </row>
+    <row r="3" spans="6:16">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="P3" s="75"/>
+    </row>
+    <row r="4" spans="6:16">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+    </row>
+    <row r="5" spans="6:16">
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+    </row>
+    <row r="6" spans="6:16">
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+    </row>
+    <row r="7" spans="6:16">
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+    </row>
+    <row r="8" spans="6:16">
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+    </row>
+    <row r="9" spans="6:16">
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+    </row>
+    <row r="10" spans="6:16">
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+    </row>
+    <row r="11" spans="6:16">
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+    </row>
+    <row r="12" spans="6:16">
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+    </row>
+    <row r="13" spans="6:16">
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+    </row>
+    <row r="14" spans="6:16">
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+    </row>
+    <row r="15" spans="6:16">
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+    </row>
+    <row r="16" spans="6:16">
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+    </row>
+    <row r="17" spans="6:16">
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16">
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="P18" s="75"/>
+    </row>
+    <row r="19" spans="6:16">
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+    </row>
+    <row r="20" spans="6:16">
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+    </row>
+    <row r="21" spans="6:16">
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="第05天" sheetId="7" r:id="rId6"/>
     <sheet name="第06天" sheetId="10" r:id="rId7"/>
     <sheet name="第07天" sheetId="11" r:id="rId8"/>
-    <sheet name="方格紙 (2)" sheetId="8" r:id="rId9"/>
-    <sheet name="方格紙" sheetId="6" r:id="rId10"/>
+    <sheet name="第08天" sheetId="12" r:id="rId9"/>
+    <sheet name="方格紙 (2)" sheetId="8" r:id="rId10"/>
+    <sheet name="方格紙" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="119">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -681,6 +682,14 @@
     <t>n = 6</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雙指標交會點</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1196,7 +1205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1356,6 +1365,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,6 +1402,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1410,25 +1440,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12174,6 +12192,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="16384" width="2.8984375" style="45"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M38"/>
@@ -15332,12 +15368,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="55"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="59"/>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -15362,15 +15398,15 @@
     <row r="3" spans="11:39" ht="15.6" customHeight="1">
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="71"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -15398,10 +15434,10 @@
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="67"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -15429,10 +15465,10 @@
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="48"/>
       <c r="U5" s="47" t="s">
         <v>100</v>
@@ -15459,26 +15495,26 @@
     <row r="6" spans="11:39" ht="15.6" customHeight="1">
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="68"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
-      <c r="Y6" s="53" t="s">
+      <c r="Y6" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="55"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="59"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
@@ -15503,15 +15539,15 @@
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="56" t="s">
+      <c r="V7" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="57"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="71"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
@@ -15539,10 +15575,10 @@
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="67"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="74"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
@@ -15570,10 +15606,10 @@
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
       <c r="X9" s="49"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="70"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="77"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
@@ -15598,26 +15634,26 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="59" t="s">
+      <c r="V10" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="60"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="73"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="68"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
       <c r="AF10" s="48"/>
       <c r="AG10" s="48"/>
-      <c r="AH10" s="53" t="s">
+      <c r="AH10" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="55"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="59"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48"/>
     </row>
@@ -15642,15 +15678,15 @@
       <c r="AB11" s="48"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="56" t="s">
+      <c r="AE11" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="63"/>
-      <c r="AK11" s="64"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="71"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48"/>
     </row>
@@ -15678,10 +15714,10 @@
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="67"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="74"/>
       <c r="AL12" s="48"/>
       <c r="AM12" s="48"/>
     </row>
@@ -15709,10 +15745,10 @@
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
       <c r="AG13" s="49"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="70"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="77"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48"/>
     </row>
@@ -15737,15 +15773,15 @@
       <c r="AB14" s="48"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="59" t="s">
+      <c r="AE14" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="73"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="68"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -26196,11 +26232,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AE14:AG14"/>
@@ -26211,6 +26242,11 @@
     <mergeCell ref="AH14:AK14"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V10:X10"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="Y6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26528,292 +26564,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="6:16">
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="6:16">
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="6:16">
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="P3" s="75"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="6:16">
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="6:16">
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="6:16">
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="6:16">
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="6:16">
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="6:16">
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="6:16">
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="6:16">
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="6:16">
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="6:16">
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="6:16">
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" spans="6:16">
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
     </row>
     <row r="16" spans="6:16">
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" spans="6:16">
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76" t="s">
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="6:16">
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="77" t="s">
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="P18" s="75"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="P18" s="54"/>
     </row>
     <row r="19" spans="6:16">
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" spans="6:16">
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
     </row>
     <row r="21" spans="6:16">
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -26824,18 +26860,329 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="16384" width="2.8984375" style="45"/>
-  </cols>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="78">
+        <v>0</v>
+      </c>
+      <c r="D1" s="78">
+        <v>1</v>
+      </c>
+      <c r="E1" s="78">
+        <v>2</v>
+      </c>
+      <c r="F1" s="78">
+        <v>3</v>
+      </c>
+      <c r="G1" s="78">
+        <v>4</v>
+      </c>
+      <c r="H1" s="78">
+        <v>5</v>
+      </c>
+      <c r="I1" s="78">
+        <v>6</v>
+      </c>
+      <c r="J1" s="78">
+        <v>7</v>
+      </c>
+      <c r="K1" s="78">
+        <v>1</v>
+      </c>
+      <c r="L1" s="78">
+        <v>2</v>
+      </c>
+      <c r="M1" s="78">
+        <v>3</v>
+      </c>
+      <c r="N1" s="78">
+        <v>4</v>
+      </c>
+      <c r="O1" s="78">
+        <v>5</v>
+      </c>
+      <c r="P1" s="78">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="78">
+        <v>7</v>
+      </c>
+      <c r="R1" s="78">
+        <v>1</v>
+      </c>
+      <c r="S1" s="78">
+        <v>2</v>
+      </c>
+      <c r="T1" s="78">
+        <v>3</v>
+      </c>
+      <c r="U1" s="78">
+        <v>4</v>
+      </c>
+      <c r="V1" s="78">
+        <v>5</v>
+      </c>
+      <c r="W1" s="78">
+        <v>6</v>
+      </c>
+      <c r="X1" s="78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="79">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>16</v>
+      </c>
+      <c r="T2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="79">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>9</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="J8" s="80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="C11" s="78">
+        <v>0</v>
+      </c>
+      <c r="D11" s="78">
+        <v>1</v>
+      </c>
+      <c r="E11" s="78">
+        <v>2</v>
+      </c>
+      <c r="F11" s="78">
+        <v>3</v>
+      </c>
+      <c r="G11" s="78">
+        <v>4</v>
+      </c>
+      <c r="H11" s="78">
+        <v>5</v>
+      </c>
+      <c r="I11" s="78">
+        <v>6</v>
+      </c>
+      <c r="J11" s="78">
+        <v>2</v>
+      </c>
+      <c r="K11" s="78">
+        <v>3</v>
+      </c>
+      <c r="L11" s="78">
+        <v>4</v>
+      </c>
+      <c r="M11" s="78">
+        <v>5</v>
+      </c>
+      <c r="N11" s="78">
+        <v>6</v>
+      </c>
+      <c r="O11" s="78">
+        <v>2</v>
+      </c>
+      <c r="P11" s="78">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="78">
+        <v>4</v>
+      </c>
+      <c r="R11" s="78">
+        <v>5</v>
+      </c>
+      <c r="S11" s="78">
+        <v>6</v>
+      </c>
+      <c r="T11" s="78">
+        <v>2</v>
+      </c>
+      <c r="U11" s="78">
+        <v>3</v>
+      </c>
+      <c r="V11" s="78">
+        <v>4</v>
+      </c>
+      <c r="W11" s="78">
+        <v>5</v>
+      </c>
+      <c r="X11" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="79">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+      <c r="R12">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="M13" s="79">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="第06天" sheetId="10" r:id="rId7"/>
     <sheet name="第07天" sheetId="11" r:id="rId8"/>
     <sheet name="第08天" sheetId="12" r:id="rId9"/>
-    <sheet name="方格紙 (2)" sheetId="8" r:id="rId10"/>
-    <sheet name="方格紙" sheetId="6" r:id="rId11"/>
+    <sheet name="第09天" sheetId="14" r:id="rId10"/>
+    <sheet name="方格紙 (2)" sheetId="8" r:id="rId11"/>
+    <sheet name="方格紙" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="144">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -690,12 +691,199 @@
     <t>雙指標交會點</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>說</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天數</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雙迴圈的所有可能性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>買的天數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>價格</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※最後一天買不可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※先賣後買不可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※例如這一行根本不需要計算，最大獲利絕對不會發生在7這個買點</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>※同一天買</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天賣不可能</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>賣的天數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>價格</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,8 +1043,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,8 +1102,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1190,6 +1405,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1205,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,6 +1663,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,15 +1697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1440,14 +1726,80 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -12176,10 +12528,377 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="14" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="102">
+        <v>0</v>
+      </c>
+      <c r="F1" s="102">
+        <v>1</v>
+      </c>
+      <c r="G1" s="102">
+        <v>2</v>
+      </c>
+      <c r="H1" s="102">
+        <v>3</v>
+      </c>
+      <c r="I1" s="102">
+        <v>4</v>
+      </c>
+      <c r="J1" s="102">
+        <v>5</v>
+      </c>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="81">
+        <v>7</v>
+      </c>
+      <c r="F2" s="81">
+        <v>1</v>
+      </c>
+      <c r="G2" s="81">
+        <v>5</v>
+      </c>
+      <c r="H2" s="81">
+        <v>3</v>
+      </c>
+      <c r="I2" s="81">
+        <v>6</v>
+      </c>
+      <c r="J2" s="81">
+        <v>4</v>
+      </c>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="99">
+        <v>7</v>
+      </c>
+      <c r="F6" s="91">
+        <v>1</v>
+      </c>
+      <c r="G6" s="91">
+        <v>5</v>
+      </c>
+      <c r="H6" s="91">
+        <v>3</v>
+      </c>
+      <c r="I6" s="94">
+        <v>6</v>
+      </c>
+      <c r="J6" s="94">
+        <v>4</v>
+      </c>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="98">
+        <v>7</v>
+      </c>
+      <c r="E7" s="100"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="83"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="93">
+        <v>1</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="83"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="93">
+        <v>5</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="83"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="93">
+        <v>3</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.4" customHeight="1">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="93">
+        <v>6</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="87"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="93">
+        <v>4</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="85"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="E20" s="82"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="E21" s="82"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="E22" s="82"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="E23" s="82"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="E24" s="82"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="E25" s="82"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="E26" s="82"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
@@ -12192,7 +12911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15368,12 +16087,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="59"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="62"/>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -15398,11 +16117,11 @@
     <row r="3" spans="11:39" ht="15.6" customHeight="1">
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="69"/>
       <c r="Q3" s="70"/>
       <c r="R3" s="70"/>
@@ -15495,26 +16214,26 @@
     <row r="6" spans="11:39" ht="15.6" customHeight="1">
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="68"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="80"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
-      <c r="Y6" s="57" t="s">
+      <c r="Y6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="59"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="62"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
@@ -15539,11 +16258,11 @@
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="60" t="s">
+      <c r="V7" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="62"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="65"/>
       <c r="Y7" s="69"/>
       <c r="Z7" s="70"/>
       <c r="AA7" s="70"/>
@@ -15634,26 +16353,26 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="63" t="s">
+      <c r="V10" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="64"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="68"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="80"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
       <c r="AF10" s="48"/>
       <c r="AG10" s="48"/>
-      <c r="AH10" s="57" t="s">
+      <c r="AH10" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="59"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="62"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48"/>
     </row>
@@ -15678,11 +16397,11 @@
       <c r="AB11" s="48"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="60" t="s">
+      <c r="AE11" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="62"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="65"/>
       <c r="AH11" s="69"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="70"/>
@@ -15773,15 +16492,15 @@
       <c r="AB14" s="48"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="63" t="s">
+      <c r="AE14" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="68"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="80"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -26232,6 +26951,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AE14:AG14"/>
@@ -26242,11 +26966,6 @@
     <mergeCell ref="AH14:AK14"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="Y6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26862,7 +27581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -26870,70 +27591,70 @@
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="78">
+      <c r="C1" s="57">
         <v>0</v>
       </c>
-      <c r="D1" s="78">
+      <c r="D1" s="57">
         <v>1</v>
       </c>
-      <c r="E1" s="78">
+      <c r="E1" s="57">
         <v>2</v>
       </c>
-      <c r="F1" s="78">
+      <c r="F1" s="57">
         <v>3</v>
       </c>
-      <c r="G1" s="78">
+      <c r="G1" s="57">
         <v>4</v>
       </c>
-      <c r="H1" s="78">
+      <c r="H1" s="57">
         <v>5</v>
       </c>
-      <c r="I1" s="78">
+      <c r="I1" s="57">
         <v>6</v>
       </c>
-      <c r="J1" s="78">
+      <c r="J1" s="57">
         <v>7</v>
       </c>
-      <c r="K1" s="78">
+      <c r="K1" s="57">
         <v>1</v>
       </c>
-      <c r="L1" s="78">
+      <c r="L1" s="57">
         <v>2</v>
       </c>
-      <c r="M1" s="78">
+      <c r="M1" s="57">
         <v>3</v>
       </c>
-      <c r="N1" s="78">
+      <c r="N1" s="57">
         <v>4</v>
       </c>
-      <c r="O1" s="78">
+      <c r="O1" s="57">
         <v>5</v>
       </c>
-      <c r="P1" s="78">
+      <c r="P1" s="57">
         <v>6</v>
       </c>
-      <c r="Q1" s="78">
+      <c r="Q1" s="57">
         <v>7</v>
       </c>
-      <c r="R1" s="78">
+      <c r="R1" s="57">
         <v>1</v>
       </c>
-      <c r="S1" s="78">
+      <c r="S1" s="57">
         <v>2</v>
       </c>
-      <c r="T1" s="78">
+      <c r="T1" s="57">
         <v>3</v>
       </c>
-      <c r="U1" s="78">
+      <c r="U1" s="57">
         <v>4</v>
       </c>
-      <c r="V1" s="78">
+      <c r="V1" s="57">
         <v>5</v>
       </c>
-      <c r="W1" s="78">
+      <c r="W1" s="57">
         <v>6</v>
       </c>
-      <c r="X1" s="78">
+      <c r="X1" s="57">
         <v>7</v>
       </c>
     </row>
@@ -26959,7 +27680,7 @@
       <c r="I2">
         <v>6</v>
       </c>
-      <c r="J2" s="79">
+      <c r="J2" s="58">
         <v>7</v>
       </c>
       <c r="K2">
@@ -27012,7 +27733,7 @@
       <c r="O3">
         <v>6</v>
       </c>
-      <c r="Q3" s="79">
+      <c r="Q3" s="58">
         <v>7</v>
       </c>
       <c r="S3">
@@ -27026,75 +27747,75 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="59" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="C11" s="78">
+      <c r="C11" s="57">
         <v>0</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="57">
         <v>1</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="57">
         <v>2</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="57">
         <v>3</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="57">
         <v>4</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="57">
         <v>5</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="57">
         <v>6</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="57">
         <v>2</v>
       </c>
-      <c r="K11" s="78">
+      <c r="K11" s="57">
         <v>3</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="57">
         <v>4</v>
       </c>
-      <c r="M11" s="78">
+      <c r="M11" s="57">
         <v>5</v>
       </c>
-      <c r="N11" s="78">
+      <c r="N11" s="57">
         <v>6</v>
       </c>
-      <c r="O11" s="78">
+      <c r="O11" s="57">
         <v>2</v>
       </c>
-      <c r="P11" s="78">
+      <c r="P11" s="57">
         <v>3</v>
       </c>
-      <c r="Q11" s="78">
+      <c r="Q11" s="57">
         <v>4</v>
       </c>
-      <c r="R11" s="78">
+      <c r="R11" s="57">
         <v>5</v>
       </c>
-      <c r="S11" s="78">
+      <c r="S11" s="57">
         <v>6</v>
       </c>
-      <c r="T11" s="78">
+      <c r="T11" s="57">
         <v>2</v>
       </c>
-      <c r="U11" s="78">
+      <c r="U11" s="57">
         <v>3</v>
       </c>
-      <c r="V11" s="78">
+      <c r="V11" s="57">
         <v>4</v>
       </c>
-      <c r="W11" s="78">
+      <c r="W11" s="57">
         <v>5</v>
       </c>
-      <c r="X11" s="78">
+      <c r="X11" s="57">
         <v>6</v>
       </c>
     </row>
@@ -27114,7 +27835,7 @@
       <c r="G12">
         <v>4</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="58">
         <v>5</v>
       </c>
       <c r="I12">
@@ -27167,7 +27888,7 @@
       <c r="K13">
         <v>4</v>
       </c>
-      <c r="M13" s="79">
+      <c r="M13" s="58">
         <v>5</v>
       </c>
       <c r="O13">

--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="第07天" sheetId="11" r:id="rId8"/>
     <sheet name="第08天" sheetId="12" r:id="rId9"/>
     <sheet name="第09天" sheetId="14" r:id="rId10"/>
-    <sheet name="方格紙 (2)" sheetId="8" r:id="rId11"/>
-    <sheet name="方格紙" sheetId="6" r:id="rId12"/>
+    <sheet name="第16天" sheetId="15" r:id="rId11"/>
+    <sheet name="方格紙 (2)" sheetId="8" r:id="rId12"/>
+    <sheet name="方格紙" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="144">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -1672,69 +1673,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1799,6 +1737,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12073,6 +12074,2719 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="橢圓 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6675120" y="213360"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1264920"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8519160" y="1264920"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120660</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878580" y="2286000"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5717540" y="2286000"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>445780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7556500" y="2286000"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9395460" y="2286000"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="3657600"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6675120" y="3657600"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235046</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106594</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30394</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="29" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5599526" y="1012286"/>
+          <a:ext cx="1212668" cy="389708"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97886</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609514</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30394</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="5"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7474046" y="1012286"/>
+          <a:ext cx="1182188" cy="389708"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600806</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144694</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="5"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9318086" y="2063846"/>
+          <a:ext cx="214448" cy="359228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>308706</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609514</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="33" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8355426" y="2063846"/>
+          <a:ext cx="300808" cy="359228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235046</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490134</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線コネクタ 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="5"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5599526" y="2063846"/>
+          <a:ext cx="255088" cy="359228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654146</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243754</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="31" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4677506" y="2063846"/>
+          <a:ext cx="260168" cy="359228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481426</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>113126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106594</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="5"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6516466" y="3084926"/>
+          <a:ext cx="295728" cy="709748"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235046</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>113126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490134</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線コネクタ 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="35" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5599526" y="3084926"/>
+          <a:ext cx="255088" cy="709748"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="フリーフォーム 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549140" y="312420"/>
+          <a:ext cx="2057400" cy="1158240"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2057400"/>
+            <a:gd name="connsiteY0" fmla="*/ 1158240 h 1158240"/>
+            <a:gd name="connsiteX1" fmla="*/ 1036320 w 2057400"/>
+            <a:gd name="connsiteY1" fmla="*/ 312420 h 1158240"/>
+            <a:gd name="connsiteX2" fmla="*/ 2057400 w 2057400"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 1158240"/>
+            <a:gd name="connsiteX3" fmla="*/ 2057400 w 2057400"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 1158240"/>
+            <a:gd name="connsiteX4" fmla="*/ 2057400 w 2057400"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 1158240"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2057400" h="1158240">
+              <a:moveTo>
+                <a:pt x="0" y="1158240"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="346710" y="831850"/>
+                <a:pt x="693420" y="505460"/>
+                <a:pt x="1036320" y="312420"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1379220" y="119380"/>
+                <a:pt x="2057400" y="0"/>
+                <a:pt x="2057400" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2057400" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2057400" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="フリーフォーム 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7589520" y="175260"/>
+          <a:ext cx="2103120" cy="1409700"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 2103120 w 2103120"/>
+            <a:gd name="connsiteY0" fmla="*/ 1409700 h 1409700"/>
+            <a:gd name="connsiteX1" fmla="*/ 1303020 w 2103120"/>
+            <a:gd name="connsiteY1" fmla="*/ 426720 h 1409700"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2103120"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 1409700"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2103120"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 1409700"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2103120" h="1409700">
+              <a:moveTo>
+                <a:pt x="2103120" y="1409700"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1878330" y="1035685"/>
+                <a:pt x="1653540" y="661670"/>
+                <a:pt x="1303020" y="426720"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="952500" y="191770"/>
+                <a:pt x="0" y="0"/>
+                <a:pt x="0" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234960</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="橢圓 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6675120" y="213360"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1264920"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8519160" y="1264920"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120660</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878580" y="2286000"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5717540" y="2286000"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>445780</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7556500" y="2286000"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9395460" y="2286000"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372120</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="3657600"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="橢圓 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6675120" y="3657600"/>
+          <a:ext cx="936000" cy="936000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235046</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106594</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30394</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線コネクタ 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="63" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5599526" y="1012286"/>
+          <a:ext cx="1212668" cy="389708"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97886</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609514</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30394</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="5"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7474046" y="1012286"/>
+          <a:ext cx="1182188" cy="389708"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600806</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144694</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="5"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9318086" y="2063846"/>
+          <a:ext cx="214448" cy="359228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>308706</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609514</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線コネクタ 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="3"/>
+          <a:endCxn id="67" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8355426" y="2063846"/>
+          <a:ext cx="300808" cy="359228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235046</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490134</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="5"/>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5599526" y="2063846"/>
+          <a:ext cx="255088" cy="359228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654146</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243754</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線コネクタ 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="3"/>
+          <a:endCxn id="65" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4677506" y="2063846"/>
+          <a:ext cx="260168" cy="359228"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481426</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>113126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106594</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="5"/>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6516466" y="3084926"/>
+          <a:ext cx="295728" cy="709748"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235046</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>113126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490134</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="69" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5599526" y="3084926"/>
+          <a:ext cx="255088" cy="709748"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="フリーフォーム 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549140" y="312420"/>
+          <a:ext cx="2057400" cy="1158240"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2057400"/>
+            <a:gd name="connsiteY0" fmla="*/ 1158240 h 1158240"/>
+            <a:gd name="connsiteX1" fmla="*/ 1036320 w 2057400"/>
+            <a:gd name="connsiteY1" fmla="*/ 312420 h 1158240"/>
+            <a:gd name="connsiteX2" fmla="*/ 2057400 w 2057400"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 1158240"/>
+            <a:gd name="connsiteX3" fmla="*/ 2057400 w 2057400"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 1158240"/>
+            <a:gd name="connsiteX4" fmla="*/ 2057400 w 2057400"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 1158240"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2057400" h="1158240">
+              <a:moveTo>
+                <a:pt x="0" y="1158240"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="346710" y="831850"/>
+                <a:pt x="693420" y="505460"/>
+                <a:pt x="1036320" y="312420"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1379220" y="119380"/>
+                <a:pt x="2057400" y="0"/>
+                <a:pt x="2057400" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2057400" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2057400" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552474</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="フリーフォーム 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5916954" y="5974080"/>
+          <a:ext cx="1154406" cy="1318260"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 910566 w 1154406"/>
+            <a:gd name="connsiteY0" fmla="*/ 1318260 h 1318260"/>
+            <a:gd name="connsiteX1" fmla="*/ 171426 w 1154406"/>
+            <a:gd name="connsiteY1" fmla="*/ 815340 h 1318260"/>
+            <a:gd name="connsiteX2" fmla="*/ 79986 w 1154406"/>
+            <a:gd name="connsiteY2" fmla="*/ 297180 h 1318260"/>
+            <a:gd name="connsiteX3" fmla="*/ 1154406 w 1154406"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 1318260"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1154406" h="1318260">
+              <a:moveTo>
+                <a:pt x="910566" y="1318260"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="610211" y="1151890"/>
+                <a:pt x="309856" y="985520"/>
+                <a:pt x="171426" y="815340"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="32996" y="645160"/>
+                <a:pt x="-83844" y="433070"/>
+                <a:pt x="79986" y="297180"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="243816" y="161290"/>
+                <a:pt x="699111" y="80645"/>
+                <a:pt x="1154406" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -12530,7 +15244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -12542,25 +15256,25 @@
     <row r="1" spans="2:11">
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="102">
+      <c r="E1" s="81">
         <v>0</v>
       </c>
-      <c r="F1" s="102">
+      <c r="F1" s="81">
         <v>1</v>
       </c>
-      <c r="G1" s="102">
+      <c r="G1" s="81">
         <v>2</v>
       </c>
-      <c r="H1" s="102">
+      <c r="H1" s="81">
         <v>3</v>
       </c>
-      <c r="I1" s="102">
+      <c r="I1" s="81">
         <v>4</v>
       </c>
-      <c r="J1" s="102">
+      <c r="J1" s="81">
         <v>5</v>
       </c>
       <c r="K1" s="28"/>
@@ -12568,28 +15282,28 @@
     <row r="2" spans="2:11">
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="81">
+      <c r="E2" s="60">
         <v>7</v>
       </c>
-      <c r="F2" s="81">
+      <c r="F2" s="60">
         <v>1</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="60">
         <v>5</v>
       </c>
-      <c r="H2" s="81">
+      <c r="H2" s="60">
         <v>3</v>
       </c>
-      <c r="I2" s="81">
+      <c r="I2" s="60">
         <v>6</v>
       </c>
-      <c r="J2" s="81">
+      <c r="J2" s="60">
         <v>4</v>
       </c>
-      <c r="K2" s="90"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="28"/>
@@ -12599,9 +15313,9 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="28"/>
@@ -12609,11 +15323,11 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="63" t="s">
         <v>137</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="83"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
@@ -12621,36 +15335,36 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="62" t="s">
         <v>138</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="83"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="99">
+      <c r="D6" s="76"/>
+      <c r="E6" s="78">
         <v>7</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="70">
         <v>1</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="70">
         <v>5</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="70">
         <v>3</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="73">
         <v>6</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="73">
         <v>4</v>
       </c>
       <c r="K6" s="28"/>
@@ -12658,133 +15372,133 @@
     <row r="7" spans="2:11">
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="98">
+      <c r="D7" s="77">
         <v>7</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="93">
+      <c r="D8" s="72">
         <v>1</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85" t="s">
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="83"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="93">
+      <c r="D9" s="72">
         <v>5</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85" t="s">
+      <c r="G9" s="64"/>
+      <c r="H9" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="83"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="93">
+      <c r="C10" s="62"/>
+      <c r="D10" s="72">
         <v>3</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
       <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" customHeight="1">
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="93">
+      <c r="D11" s="72">
         <v>6</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="85"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="64"/>
       <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="93">
+      <c r="D12" s="72">
         <v>4</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="85"/>
+      <c r="J12" s="64"/>
       <c r="K12" s="28"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="86"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="86"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
@@ -12793,7 +15507,7 @@
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="86"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -12805,7 +15519,7 @@
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="86"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -12817,7 +15531,7 @@
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="65" t="s">
         <v>134</v>
       </c>
       <c r="F16" s="28"/>
@@ -12831,21 +15545,21 @@
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="28"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="86"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -12857,7 +15571,7 @@
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="86"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -12866,25 +15580,25 @@
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="E20" s="82"/>
+      <c r="E20" s="61"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="E21" s="82"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="E22" s="82"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="E23" s="82"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="E24" s="82"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="E25" s="82"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="E26" s="82"/>
+      <c r="E26" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12894,6 +15608,610 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:P45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="6:16">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="6:16">
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="6:16">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="P3" s="54"/>
+    </row>
+    <row r="4" spans="6:16">
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+    </row>
+    <row r="5" spans="6:16">
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+    </row>
+    <row r="6" spans="6:16">
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+    </row>
+    <row r="7" spans="6:16">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+    </row>
+    <row r="8" spans="6:16">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+    </row>
+    <row r="9" spans="6:16">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+    </row>
+    <row r="10" spans="6:16">
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+    </row>
+    <row r="11" spans="6:16">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+    </row>
+    <row r="12" spans="6:16">
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+    </row>
+    <row r="13" spans="6:16">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="6:16">
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="6:16">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+    </row>
+    <row r="16" spans="6:16">
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+    </row>
+    <row r="17" spans="6:16">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+    </row>
+    <row r="18" spans="6:16">
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+    </row>
+    <row r="19" spans="6:16">
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+    </row>
+    <row r="20" spans="6:16">
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+    </row>
+    <row r="21" spans="6:16">
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+    </row>
+    <row r="22" spans="6:16">
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+    </row>
+    <row r="23" spans="6:16">
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+    </row>
+    <row r="24" spans="6:16">
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+    </row>
+    <row r="25" spans="6:16">
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="P25" s="54"/>
+    </row>
+    <row r="26" spans="6:16">
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+    </row>
+    <row r="27" spans="6:16">
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+    </row>
+    <row r="28" spans="6:16">
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+    </row>
+    <row r="29" spans="6:16">
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+    </row>
+    <row r="30" spans="6:16">
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+    </row>
+    <row r="31" spans="6:16">
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+    </row>
+    <row r="32" spans="6:16">
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+    </row>
+    <row r="33" spans="6:16">
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+    </row>
+    <row r="34" spans="6:16">
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+    </row>
+    <row r="35" spans="6:16">
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+    </row>
+    <row r="36" spans="6:16">
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+    </row>
+    <row r="37" spans="6:16">
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+    </row>
+    <row r="38" spans="6:16">
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+    </row>
+    <row r="39" spans="6:16">
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+    </row>
+    <row r="40" spans="6:16">
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+    </row>
+    <row r="41" spans="6:16">
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+    </row>
+    <row r="42" spans="6:16">
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+    </row>
+    <row r="43" spans="6:16">
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+    </row>
+    <row r="44" spans="6:16">
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+    </row>
+    <row r="45" spans="6:16">
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12911,7 +16229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16087,12 +19405,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -16117,15 +19435,15 @@
     <row r="3" spans="11:39" ht="15.6" customHeight="1">
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="71"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="96"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -16153,10 +19471,10 @@
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="74"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="99"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -16184,10 +19502,10 @@
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="48"/>
       <c r="U5" s="47" t="s">
         <v>100</v>
@@ -16214,26 +19532,26 @@
     <row r="6" spans="11:39" ht="15.6" customHeight="1">
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="80"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="93"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
-      <c r="Y6" s="60" t="s">
+      <c r="Y6" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="62"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="84"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
@@ -16258,15 +19576,15 @@
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="63" t="s">
+      <c r="V7" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="64"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="71"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="96"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
@@ -16294,10 +19612,10 @@
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="74"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="99"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
@@ -16325,10 +19643,10 @@
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
       <c r="X9" s="49"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="77"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="102"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
@@ -16353,26 +19671,26 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="66" t="s">
+      <c r="V10" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="67"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="80"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="93"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
       <c r="AF10" s="48"/>
       <c r="AG10" s="48"/>
-      <c r="AH10" s="60" t="s">
+      <c r="AH10" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="62"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="84"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48"/>
     </row>
@@ -16397,15 +19715,15 @@
       <c r="AB11" s="48"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="63" t="s">
+      <c r="AE11" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="70"/>
-      <c r="AK11" s="71"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="96"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48"/>
     </row>
@@ -16433,10 +19751,10 @@
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="74"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="99"/>
       <c r="AL12" s="48"/>
       <c r="AM12" s="48"/>
     </row>
@@ -16464,10 +19782,10 @@
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
       <c r="AG13" s="49"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="77"/>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="101"/>
+      <c r="AJ13" s="101"/>
+      <c r="AK13" s="102"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48"/>
     </row>
@@ -16492,15 +19810,15 @@
       <c r="AB14" s="48"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="66" t="s">
+      <c r="AE14" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="80"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="93"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -26951,11 +30269,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AE14:AG14"/>
@@ -26966,6 +30279,11 @@
     <mergeCell ref="AH14:AK14"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V10:X10"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="Y6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="第08天" sheetId="12" r:id="rId9"/>
     <sheet name="第09天" sheetId="14" r:id="rId10"/>
     <sheet name="第16天" sheetId="15" r:id="rId11"/>
-    <sheet name="方格紙 (2)" sheetId="8" r:id="rId12"/>
-    <sheet name="方格紙" sheetId="6" r:id="rId13"/>
+    <sheet name="第18天" sheetId="8" r:id="rId12"/>
+    <sheet name="方格紙 (2)" sheetId="17" r:id="rId13"/>
+    <sheet name="方格紙" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -879,12 +880,16 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Figure 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,8 +1064,16 @@
       <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1125,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CA4FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF377943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,7 +1517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,15 +1791,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1802,6 +1818,48 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般 2" xfId="3"/>
@@ -1811,6 +1869,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF377943"/>
+      <color rgb="FF4CA4FA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -15611,8 +15675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -16213,10 +16277,816 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="O4:AF36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ26" sqref="AQ26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="16384" width="2.8984375" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="15:32">
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+    </row>
+    <row r="5" spans="15:32">
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+    </row>
+    <row r="6" spans="15:32">
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+    </row>
+    <row r="7" spans="15:32">
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="106">
+        <v>1</v>
+      </c>
+      <c r="T7" s="107"/>
+      <c r="U7" s="106">
+        <v>1</v>
+      </c>
+      <c r="V7" s="107"/>
+      <c r="W7" s="106">
+        <v>1</v>
+      </c>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="110">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+    </row>
+    <row r="8" spans="15:32">
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+    </row>
+    <row r="9" spans="15:32">
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="106">
+        <v>1</v>
+      </c>
+      <c r="T9" s="107"/>
+      <c r="U9" s="106">
+        <v>1</v>
+      </c>
+      <c r="V9" s="107"/>
+      <c r="W9" s="110">
+        <v>0</v>
+      </c>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="110">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+    </row>
+    <row r="10" spans="15:32">
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+    </row>
+    <row r="11" spans="15:32">
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="106">
+        <v>1</v>
+      </c>
+      <c r="T11" s="107"/>
+      <c r="U11" s="106">
+        <v>1</v>
+      </c>
+      <c r="V11" s="107"/>
+      <c r="W11" s="110">
+        <v>0</v>
+      </c>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="110">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="110">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+    </row>
+    <row r="12" spans="15:32">
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+    </row>
+    <row r="13" spans="15:32">
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="110">
+        <v>0</v>
+      </c>
+      <c r="T13" s="111"/>
+      <c r="U13" s="110">
+        <v>0</v>
+      </c>
+      <c r="V13" s="111"/>
+      <c r="W13" s="110">
+        <v>0</v>
+      </c>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="110">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="110">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+    </row>
+    <row r="14" spans="15:32">
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="112"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="103"/>
+    </row>
+    <row r="15" spans="15:32">
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+    </row>
+    <row r="16" spans="15:32">
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="103"/>
+    </row>
+    <row r="17" spans="15:32">
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+    </row>
+    <row r="18" spans="15:32">
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="103"/>
+    </row>
+    <row r="19" spans="15:32">
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+    </row>
+    <row r="20" spans="15:32">
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="103"/>
+    </row>
+    <row r="21" spans="15:32">
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
+    </row>
+    <row r="22" spans="15:32">
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="106">
+        <v>1</v>
+      </c>
+      <c r="T22" s="107"/>
+      <c r="U22" s="106">
+        <v>1</v>
+      </c>
+      <c r="V22" s="107"/>
+      <c r="W22" s="110">
+        <v>0</v>
+      </c>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="110">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="110">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="103"/>
+    </row>
+    <row r="23" spans="15:32">
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="103"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="103"/>
+    </row>
+    <row r="24" spans="15:32">
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="106">
+        <v>1</v>
+      </c>
+      <c r="T24" s="107"/>
+      <c r="U24" s="106">
+        <v>1</v>
+      </c>
+      <c r="V24" s="107"/>
+      <c r="W24" s="110">
+        <v>0</v>
+      </c>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="110">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="110">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="103"/>
+    </row>
+    <row r="25" spans="15:32">
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="103"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="103"/>
+    </row>
+    <row r="26" spans="15:32">
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="110">
+        <v>0</v>
+      </c>
+      <c r="T26" s="111"/>
+      <c r="U26" s="110">
+        <v>0</v>
+      </c>
+      <c r="V26" s="111"/>
+      <c r="W26" s="106">
+        <v>1</v>
+      </c>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="110">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="110">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="103"/>
+    </row>
+    <row r="27" spans="15:32">
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+    </row>
+    <row r="28" spans="15:32">
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="110">
+        <v>0</v>
+      </c>
+      <c r="T28" s="111"/>
+      <c r="U28" s="110">
+        <v>0</v>
+      </c>
+      <c r="V28" s="111"/>
+      <c r="W28" s="110">
+        <v>0</v>
+      </c>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="106">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="103"/>
+    </row>
+    <row r="29" spans="15:32">
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="108"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="108"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+    </row>
+    <row r="30" spans="15:32">
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="103"/>
+    </row>
+    <row r="31" spans="15:32">
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="103"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="103"/>
+    </row>
+    <row r="32" spans="15:32">
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="103"/>
+      <c r="AC32" s="103"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="103"/>
+    </row>
+    <row r="33" spans="15:32">
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="103"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="103"/>
+    </row>
+    <row r="34" spans="15:32">
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="103"/>
+      <c r="AF34" s="103"/>
+    </row>
+    <row r="35" spans="15:32">
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="103"/>
+      <c r="AF35" s="103"/>
+    </row>
+    <row r="36" spans="15:32">
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="103"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="103"/>
+      <c r="AF36" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="S28:T29"/>
+    <mergeCell ref="U28:V29"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="S24:T25"/>
+    <mergeCell ref="U24:V25"/>
+    <mergeCell ref="W24:X25"/>
+    <mergeCell ref="Y24:Z25"/>
+    <mergeCell ref="AA24:AB25"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="W26:X27"/>
+    <mergeCell ref="Y26:Z27"/>
+    <mergeCell ref="AA26:AB27"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="S22:T23"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="S9:T10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
@@ -16229,12 +17099,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
@@ -19440,10 +20310,10 @@
       </c>
       <c r="N3" s="86"/>
       <c r="O3" s="87"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="96"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="93"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -19471,10 +20341,10 @@
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="99"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="96"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -19502,10 +20372,10 @@
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="102"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="48"/>
       <c r="U5" s="47" t="s">
         <v>100</v>
@@ -19537,10 +20407,10 @@
       </c>
       <c r="N6" s="89"/>
       <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="93"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="102"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
@@ -19581,10 +20451,10 @@
       </c>
       <c r="W7" s="86"/>
       <c r="X7" s="87"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="96"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="93"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
@@ -19612,10 +20482,10 @@
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="99"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="96"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
@@ -19643,10 +20513,10 @@
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
       <c r="X9" s="49"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="102"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="99"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
@@ -19676,10 +20546,10 @@
       </c>
       <c r="W10" s="89"/>
       <c r="X10" s="90"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="93"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="102"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
@@ -19720,10 +20590,10 @@
       </c>
       <c r="AF11" s="86"/>
       <c r="AG11" s="87"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="95"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="96"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="93"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48"/>
     </row>
@@ -19751,10 +20621,10 @@
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="99"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="96"/>
       <c r="AL12" s="48"/>
       <c r="AM12" s="48"/>
     </row>
@@ -19782,10 +20652,10 @@
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
       <c r="AG13" s="49"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="101"/>
-      <c r="AJ13" s="101"/>
-      <c r="AK13" s="102"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="99"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48"/>
     </row>
@@ -19815,10 +20685,10 @@
       </c>
       <c r="AF14" s="89"/>
       <c r="AG14" s="90"/>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="93"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="101"/>
+      <c r="AJ14" s="101"/>
+      <c r="AK14" s="102"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -30269,6 +31139,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AE14:AG14"/>
@@ -30279,11 +31154,6 @@
     <mergeCell ref="AH14:AK14"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="Y6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="第09天" sheetId="14" r:id="rId10"/>
     <sheet name="第16天" sheetId="15" r:id="rId11"/>
     <sheet name="第18天" sheetId="8" r:id="rId12"/>
-    <sheet name="方格紙 (2)" sheetId="17" r:id="rId13"/>
-    <sheet name="方格紙" sheetId="6" r:id="rId14"/>
+    <sheet name="第23天" sheetId="19" r:id="rId13"/>
+    <sheet name="方格紙 (2)" sheetId="17" r:id="rId14"/>
+    <sheet name="方格紙" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="149">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -884,6 +885,22 @@
     <t>Figure 2</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ptr1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ptr2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>字串</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a, b, c 各出現1次，是易位構詞</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1073,7 +1090,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,8 +1157,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1502,6 +1525,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1517,7 +1568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1764,6 +1815,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1789,6 +1849,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,23 +1887,17 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1848,17 +1911,35 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -14851,6 +14932,218 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フリーフォーム 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3132365" y="822960"/>
+          <a:ext cx="662395" cy="2240280"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 662395 w 662395"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2240280"/>
+            <a:gd name="connsiteX1" fmla="*/ 7075 w 662395"/>
+            <a:gd name="connsiteY1" fmla="*/ 967740 h 2240280"/>
+            <a:gd name="connsiteX2" fmla="*/ 372835 w 662395"/>
+            <a:gd name="connsiteY2" fmla="*/ 2240280 h 2240280"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="662395" h="2240280">
+              <a:moveTo>
+                <a:pt x="662395" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="358865" y="297180"/>
+                <a:pt x="55335" y="594360"/>
+                <a:pt x="7075" y="967740"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-41185" y="1341120"/>
+                <a:pt x="165825" y="1790700"/>
+                <a:pt x="372835" y="2240280"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フリーフォーム 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5273040" y="3558540"/>
+          <a:ext cx="2545080" cy="457200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2545080"/>
+            <a:gd name="connsiteY0" fmla="*/ 457200 h 457200"/>
+            <a:gd name="connsiteX1" fmla="*/ 1470660 w 2545080"/>
+            <a:gd name="connsiteY1" fmla="*/ 358140 h 457200"/>
+            <a:gd name="connsiteX2" fmla="*/ 2545080 w 2545080"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 457200"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2545080" h="457200">
+              <a:moveTo>
+                <a:pt x="0" y="457200"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="523240" y="445770"/>
+                <a:pt x="1046480" y="434340"/>
+                <a:pt x="1470660" y="358140"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1894840" y="281940"/>
+                <a:pt x="2219960" y="140970"/>
+                <a:pt x="2545080" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -16279,8 +16572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O4:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ26" sqref="AQ26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
@@ -16289,791 +16582,791 @@
   </cols>
   <sheetData>
     <row r="4" spans="15:32">
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
     </row>
     <row r="5" spans="15:32">
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
     </row>
     <row r="6" spans="15:32">
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
     </row>
     <row r="7" spans="15:32">
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="106">
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="110">
         <v>1</v>
       </c>
-      <c r="T7" s="107"/>
-      <c r="U7" s="106">
+      <c r="T7" s="111"/>
+      <c r="U7" s="110">
         <v>1</v>
       </c>
-      <c r="V7" s="107"/>
-      <c r="W7" s="106">
+      <c r="V7" s="111"/>
+      <c r="W7" s="110">
         <v>1</v>
       </c>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="106">
+      <c r="X7" s="111"/>
+      <c r="Y7" s="110">
         <v>1</v>
       </c>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="110">
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="106">
         <v>0</v>
       </c>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
     </row>
     <row r="8" spans="15:32">
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
     </row>
     <row r="9" spans="15:32">
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="106">
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="110">
         <v>1</v>
       </c>
-      <c r="T9" s="107"/>
-      <c r="U9" s="106">
+      <c r="T9" s="111"/>
+      <c r="U9" s="110">
         <v>1</v>
       </c>
-      <c r="V9" s="107"/>
-      <c r="W9" s="110">
+      <c r="V9" s="111"/>
+      <c r="W9" s="106">
         <v>0</v>
       </c>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="106">
+      <c r="X9" s="107"/>
+      <c r="Y9" s="110">
         <v>1</v>
       </c>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="110">
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="106">
         <v>0</v>
       </c>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
     </row>
     <row r="10" spans="15:32">
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
     </row>
     <row r="11" spans="15:32">
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="106">
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="110">
         <v>1</v>
       </c>
-      <c r="T11" s="107"/>
-      <c r="U11" s="106">
+      <c r="T11" s="111"/>
+      <c r="U11" s="110">
         <v>1</v>
       </c>
-      <c r="V11" s="107"/>
-      <c r="W11" s="110">
+      <c r="V11" s="111"/>
+      <c r="W11" s="106">
         <v>0</v>
       </c>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="110">
+      <c r="X11" s="107"/>
+      <c r="Y11" s="106">
         <v>0</v>
       </c>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="110">
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="106">
         <v>0</v>
       </c>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="103"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
     </row>
     <row r="12" spans="15:32">
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="103"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
     </row>
     <row r="13" spans="15:32">
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="110">
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="106">
         <v>0</v>
       </c>
-      <c r="T13" s="111"/>
-      <c r="U13" s="110">
+      <c r="T13" s="107"/>
+      <c r="U13" s="106">
         <v>0</v>
       </c>
-      <c r="V13" s="111"/>
-      <c r="W13" s="110">
+      <c r="V13" s="107"/>
+      <c r="W13" s="106">
         <v>0</v>
       </c>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="110">
+      <c r="X13" s="107"/>
+      <c r="Y13" s="106">
         <v>0</v>
       </c>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="110">
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="106">
         <v>0</v>
       </c>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
     </row>
     <row r="14" spans="15:32">
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="112"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="103"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
     </row>
     <row r="15" spans="15:32">
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
     </row>
     <row r="16" spans="15:32">
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
     </row>
     <row r="17" spans="15:32">
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
       <c r="W17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
     </row>
     <row r="18" spans="15:32">
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="103"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
     </row>
     <row r="19" spans="15:32">
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
     </row>
     <row r="20" spans="15:32">
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
     </row>
     <row r="21" spans="15:32">
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
     </row>
     <row r="22" spans="15:32">
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="106">
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="110">
         <v>1</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="106">
+      <c r="T22" s="111"/>
+      <c r="U22" s="110">
         <v>1</v>
       </c>
-      <c r="V22" s="107"/>
-      <c r="W22" s="110">
+      <c r="V22" s="111"/>
+      <c r="W22" s="106">
         <v>0</v>
       </c>
-      <c r="X22" s="111"/>
-      <c r="Y22" s="110">
+      <c r="X22" s="107"/>
+      <c r="Y22" s="106">
         <v>0</v>
       </c>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="110">
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="106">
         <v>0</v>
       </c>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="103"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
     </row>
     <row r="23" spans="15:32">
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="112"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="112"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="103"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
     </row>
     <row r="24" spans="15:32">
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="106">
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="110">
         <v>1</v>
       </c>
-      <c r="T24" s="107"/>
-      <c r="U24" s="106">
+      <c r="T24" s="111"/>
+      <c r="U24" s="110">
         <v>1</v>
       </c>
-      <c r="V24" s="107"/>
-      <c r="W24" s="110">
+      <c r="V24" s="111"/>
+      <c r="W24" s="106">
         <v>0</v>
       </c>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="110">
+      <c r="X24" s="107"/>
+      <c r="Y24" s="106">
         <v>0</v>
       </c>
-      <c r="Z24" s="111"/>
-      <c r="AA24" s="110">
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="106">
         <v>0</v>
       </c>
-      <c r="AB24" s="111"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="103"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
     </row>
     <row r="25" spans="15:32">
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="109"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="113"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="103"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
     </row>
     <row r="26" spans="15:32">
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="110">
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="106">
         <v>0</v>
       </c>
-      <c r="T26" s="111"/>
-      <c r="U26" s="110">
+      <c r="T26" s="107"/>
+      <c r="U26" s="106">
         <v>0</v>
       </c>
-      <c r="V26" s="111"/>
-      <c r="W26" s="106">
+      <c r="V26" s="107"/>
+      <c r="W26" s="110">
         <v>1</v>
       </c>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="110">
+      <c r="X26" s="111"/>
+      <c r="Y26" s="106">
         <v>0</v>
       </c>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="110">
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="106">
         <v>0</v>
       </c>
-      <c r="AB26" s="111"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="103"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
     </row>
     <row r="27" spans="15:32">
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="108"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="113"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="108"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
     </row>
     <row r="28" spans="15:32">
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="110">
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="106">
         <v>0</v>
       </c>
-      <c r="T28" s="111"/>
-      <c r="U28" s="110">
+      <c r="T28" s="107"/>
+      <c r="U28" s="106">
         <v>0</v>
       </c>
-      <c r="V28" s="111"/>
-      <c r="W28" s="110">
+      <c r="V28" s="107"/>
+      <c r="W28" s="106">
         <v>0</v>
       </c>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="106">
+      <c r="X28" s="107"/>
+      <c r="Y28" s="110">
         <v>1</v>
       </c>
-      <c r="Z28" s="107"/>
-      <c r="AA28" s="106">
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="110">
         <v>1</v>
       </c>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="103"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
     </row>
     <row r="29" spans="15:32">
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="108"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="103"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="112"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
     </row>
     <row r="30" spans="15:32">
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="103"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
     </row>
     <row r="31" spans="15:32">
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="103"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="103"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
     </row>
     <row r="32" spans="15:32">
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
       <c r="W32" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="103"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="82"/>
     </row>
     <row r="33" spans="15:32">
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="103"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="82"/>
+      <c r="AC33" s="82"/>
+      <c r="AD33" s="82"/>
+      <c r="AE33" s="82"/>
+      <c r="AF33" s="82"/>
     </row>
     <row r="34" spans="15:32">
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="103"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="82"/>
     </row>
     <row r="35" spans="15:32">
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="103"/>
-      <c r="AF35" s="103"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
     </row>
     <row r="36" spans="15:32">
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="103"/>
-      <c r="AF36" s="103"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="82"/>
+      <c r="AF36" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="S22:T23"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="W26:X27"/>
+    <mergeCell ref="Y26:Z27"/>
+    <mergeCell ref="AA26:AB27"/>
+    <mergeCell ref="S24:T25"/>
+    <mergeCell ref="U24:V25"/>
+    <mergeCell ref="W24:X25"/>
+    <mergeCell ref="Y24:Z25"/>
+    <mergeCell ref="AA24:AB25"/>
     <mergeCell ref="S28:T29"/>
     <mergeCell ref="U28:V29"/>
     <mergeCell ref="W28:X29"/>
     <mergeCell ref="Y28:Z29"/>
     <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="S24:T25"/>
-    <mergeCell ref="U24:V25"/>
-    <mergeCell ref="W24:X25"/>
-    <mergeCell ref="Y24:Z25"/>
-    <mergeCell ref="AA24:AB25"/>
-    <mergeCell ref="S26:T27"/>
-    <mergeCell ref="U26:V27"/>
-    <mergeCell ref="W26:X27"/>
-    <mergeCell ref="Y26:Z27"/>
-    <mergeCell ref="AA26:AB27"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="S22:T23"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="S9:T10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17082,6 +17375,455 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="4:17">
+      <c r="D1" s="4"/>
+      <c r="E1" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5">
+        <v>6</v>
+      </c>
+      <c r="M1" s="5">
+        <v>7</v>
+      </c>
+      <c r="N1" s="5">
+        <v>8</v>
+      </c>
+      <c r="O1" s="5">
+        <v>9</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="4:17">
+      <c r="D2" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="4:17">
+      <c r="D3" s="4"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="4:17">
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="116"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="4:17">
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="4:17">
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="4:17">
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="4:17">
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="4:17">
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="4:17">
+      <c r="E10" s="8"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="4:17">
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="4:17">
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="4:17">
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="4:17">
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="122"/>
+      <c r="M14" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" s="114"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="4:17">
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="4:17">
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="118"/>
+      <c r="N16" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="4:17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="4:17">
+      <c r="D18" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="4:17">
+      <c r="D19" s="4"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="4:17">
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="4:17">
+      <c r="D21" s="4"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17099,7 +17841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20275,12 +21017,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -20305,15 +21047,15 @@
     <row r="3" spans="11:39" ht="15.6" customHeight="1">
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="93"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -20341,10 +21083,10 @@
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="96"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="102"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -20372,10 +21114,10 @@
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="99"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="48"/>
       <c r="U5" s="47" t="s">
         <v>100</v>
@@ -20402,26 +21144,26 @@
     <row r="6" spans="11:39" ht="15.6" customHeight="1">
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="102"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="96"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
-      <c r="Y6" s="82" t="s">
+      <c r="Y6" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="84"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="87"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
@@ -20446,15 +21188,15 @@
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="85" t="s">
+      <c r="V7" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="86"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="99"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
@@ -20482,10 +21224,10 @@
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="96"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="102"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
@@ -20513,10 +21255,10 @@
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
       <c r="X9" s="49"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="99"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="105"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
@@ -20541,26 +21283,26 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="88" t="s">
+      <c r="V10" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="89"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="102"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="96"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
       <c r="AF10" s="48"/>
       <c r="AG10" s="48"/>
-      <c r="AH10" s="82" t="s">
+      <c r="AH10" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="84"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="87"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48"/>
     </row>
@@ -20585,15 +21327,15 @@
       <c r="AB11" s="48"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="85" t="s">
+      <c r="AE11" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="93"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="99"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48"/>
     </row>
@@ -20621,10 +21363,10 @@
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="96"/>
+      <c r="AH12" s="100"/>
+      <c r="AI12" s="101"/>
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="102"/>
       <c r="AL12" s="48"/>
       <c r="AM12" s="48"/>
     </row>
@@ -20652,10 +21394,10 @@
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
       <c r="AG13" s="49"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="99"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="105"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48"/>
     </row>
@@ -20680,15 +21422,15 @@
       <c r="AB14" s="48"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="88" t="s">
+      <c r="AE14" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="101"/>
-      <c r="AJ14" s="101"/>
-      <c r="AK14" s="102"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="96"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -31139,11 +31881,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AE14:AG14"/>
@@ -31154,6 +31891,11 @@
     <mergeCell ref="AH14:AK14"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V10:X10"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="Y6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31770,7 +32512,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,8 +25,9 @@
     <sheet name="第16天" sheetId="15" r:id="rId11"/>
     <sheet name="第18天" sheetId="8" r:id="rId12"/>
     <sheet name="第23天" sheetId="19" r:id="rId13"/>
-    <sheet name="方格紙 (2)" sheetId="17" r:id="rId14"/>
-    <sheet name="方格紙" sheetId="6" r:id="rId15"/>
+    <sheet name="第24天" sheetId="20" r:id="rId14"/>
+    <sheet name="方格紙 (2)" sheetId="17" r:id="rId15"/>
+    <sheet name="方格紙" sheetId="6" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="167">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -901,12 +902,207 @@
     <t>a, b, c 各出現1次，是易位構詞</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>種可能</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>種可能</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>種可能</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>字串s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n = 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n = 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n = 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>替換次數</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k = 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>相同字元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>視窗變大</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>若替換後相同字元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>視窗變大</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>若替換後還是沒有相同字元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>視窗大小不變右移</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>若替換後相同字元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>找到答案</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答為4</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,8 +1285,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1163,8 +1366,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1553,6 +1774,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1568,7 +1811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1824,6 +2067,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1849,15 +2122,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,6 +2151,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1911,34 +2184,67 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15968,7 +16274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -16646,26 +16952,26 @@
       <c r="P7" s="82"/>
       <c r="Q7" s="82"/>
       <c r="R7" s="82"/>
-      <c r="S7" s="110">
+      <c r="S7" s="120">
         <v>1</v>
       </c>
-      <c r="T7" s="111"/>
-      <c r="U7" s="110">
+      <c r="T7" s="121"/>
+      <c r="U7" s="120">
         <v>1</v>
       </c>
-      <c r="V7" s="111"/>
-      <c r="W7" s="110">
+      <c r="V7" s="121"/>
+      <c r="W7" s="120">
         <v>1</v>
       </c>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="110">
+      <c r="X7" s="121"/>
+      <c r="Y7" s="120">
         <v>1</v>
       </c>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="106">
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="116">
         <v>0</v>
       </c>
-      <c r="AB7" s="107"/>
+      <c r="AB7" s="117"/>
       <c r="AC7" s="82"/>
       <c r="AD7" s="82"/>
       <c r="AE7" s="82"/>
@@ -16676,16 +16982,16 @@
       <c r="P8" s="82"/>
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="109"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="119"/>
       <c r="AC8" s="82"/>
       <c r="AD8" s="82"/>
       <c r="AE8" s="82"/>
@@ -16696,26 +17002,26 @@
       <c r="P9" s="82"/>
       <c r="Q9" s="82"/>
       <c r="R9" s="82"/>
-      <c r="S9" s="110">
+      <c r="S9" s="120">
         <v>1</v>
       </c>
-      <c r="T9" s="111"/>
-      <c r="U9" s="110">
+      <c r="T9" s="121"/>
+      <c r="U9" s="120">
         <v>1</v>
       </c>
-      <c r="V9" s="111"/>
-      <c r="W9" s="106">
+      <c r="V9" s="121"/>
+      <c r="W9" s="116">
         <v>0</v>
       </c>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="110">
+      <c r="X9" s="117"/>
+      <c r="Y9" s="120">
         <v>1</v>
       </c>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="106">
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="116">
         <v>0</v>
       </c>
-      <c r="AB9" s="107"/>
+      <c r="AB9" s="117"/>
       <c r="AC9" s="82"/>
       <c r="AD9" s="82"/>
       <c r="AE9" s="82"/>
@@ -16726,16 +17032,16 @@
       <c r="P10" s="82"/>
       <c r="Q10" s="82"/>
       <c r="R10" s="82"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="109"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="119"/>
       <c r="AC10" s="82"/>
       <c r="AD10" s="82"/>
       <c r="AE10" s="82"/>
@@ -16746,26 +17052,26 @@
       <c r="P11" s="82"/>
       <c r="Q11" s="82"/>
       <c r="R11" s="82"/>
-      <c r="S11" s="110">
+      <c r="S11" s="120">
         <v>1</v>
       </c>
-      <c r="T11" s="111"/>
-      <c r="U11" s="110">
+      <c r="T11" s="121"/>
+      <c r="U11" s="120">
         <v>1</v>
       </c>
-      <c r="V11" s="111"/>
-      <c r="W11" s="106">
+      <c r="V11" s="121"/>
+      <c r="W11" s="116">
         <v>0</v>
       </c>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="106">
+      <c r="X11" s="117"/>
+      <c r="Y11" s="116">
         <v>0</v>
       </c>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="106">
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="116">
         <v>0</v>
       </c>
-      <c r="AB11" s="107"/>
+      <c r="AB11" s="117"/>
       <c r="AC11" s="82"/>
       <c r="AD11" s="82"/>
       <c r="AE11" s="82"/>
@@ -16776,16 +17082,16 @@
       <c r="P12" s="82"/>
       <c r="Q12" s="82"/>
       <c r="R12" s="82"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="109"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="119"/>
       <c r="AC12" s="82"/>
       <c r="AD12" s="82"/>
       <c r="AE12" s="82"/>
@@ -16796,26 +17102,26 @@
       <c r="P13" s="82"/>
       <c r="Q13" s="82"/>
       <c r="R13" s="82"/>
-      <c r="S13" s="106">
+      <c r="S13" s="116">
         <v>0</v>
       </c>
-      <c r="T13" s="107"/>
-      <c r="U13" s="106">
+      <c r="T13" s="117"/>
+      <c r="U13" s="116">
         <v>0</v>
       </c>
-      <c r="V13" s="107"/>
-      <c r="W13" s="106">
+      <c r="V13" s="117"/>
+      <c r="W13" s="116">
         <v>0</v>
       </c>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="106">
+      <c r="X13" s="117"/>
+      <c r="Y13" s="116">
         <v>0</v>
       </c>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="106">
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="116">
         <v>0</v>
       </c>
-      <c r="AB13" s="107"/>
+      <c r="AB13" s="117"/>
       <c r="AC13" s="83"/>
       <c r="AD13" s="82"/>
       <c r="AE13" s="82"/>
@@ -16826,16 +17132,16 @@
       <c r="P14" s="82"/>
       <c r="Q14" s="82"/>
       <c r="R14" s="82"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="109"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="119"/>
       <c r="AC14" s="83"/>
       <c r="AD14" s="82"/>
       <c r="AE14" s="82"/>
@@ -16988,26 +17294,26 @@
       <c r="P22" s="82"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="82"/>
-      <c r="S22" s="110">
+      <c r="S22" s="120">
         <v>1</v>
       </c>
-      <c r="T22" s="111"/>
-      <c r="U22" s="110">
+      <c r="T22" s="121"/>
+      <c r="U22" s="120">
         <v>1</v>
       </c>
-      <c r="V22" s="111"/>
-      <c r="W22" s="106">
+      <c r="V22" s="121"/>
+      <c r="W22" s="116">
         <v>0</v>
       </c>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="106">
+      <c r="X22" s="117"/>
+      <c r="Y22" s="116">
         <v>0</v>
       </c>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="106">
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="116">
         <v>0</v>
       </c>
-      <c r="AB22" s="107"/>
+      <c r="AB22" s="117"/>
       <c r="AC22" s="82"/>
       <c r="AD22" s="82"/>
       <c r="AE22" s="82"/>
@@ -17018,16 +17324,16 @@
       <c r="P23" s="82"/>
       <c r="Q23" s="82"/>
       <c r="R23" s="82"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="109"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="119"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="119"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="119"/>
       <c r="AC23" s="82"/>
       <c r="AD23" s="82"/>
       <c r="AE23" s="82"/>
@@ -17038,26 +17344,26 @@
       <c r="P24" s="82"/>
       <c r="Q24" s="82"/>
       <c r="R24" s="82"/>
-      <c r="S24" s="110">
+      <c r="S24" s="120">
         <v>1</v>
       </c>
-      <c r="T24" s="111"/>
-      <c r="U24" s="110">
+      <c r="T24" s="121"/>
+      <c r="U24" s="120">
         <v>1</v>
       </c>
-      <c r="V24" s="111"/>
-      <c r="W24" s="106">
+      <c r="V24" s="121"/>
+      <c r="W24" s="116">
         <v>0</v>
       </c>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="106">
+      <c r="X24" s="117"/>
+      <c r="Y24" s="116">
         <v>0</v>
       </c>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="106">
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="116">
         <v>0</v>
       </c>
-      <c r="AB24" s="107"/>
+      <c r="AB24" s="117"/>
       <c r="AC24" s="82"/>
       <c r="AD24" s="82"/>
       <c r="AE24" s="82"/>
@@ -17068,16 +17374,16 @@
       <c r="P25" s="82"/>
       <c r="Q25" s="82"/>
       <c r="R25" s="82"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="109"/>
-      <c r="Y25" s="108"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="109"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="119"/>
       <c r="AC25" s="82"/>
       <c r="AD25" s="82"/>
       <c r="AE25" s="82"/>
@@ -17088,26 +17394,26 @@
       <c r="P26" s="82"/>
       <c r="Q26" s="82"/>
       <c r="R26" s="82"/>
-      <c r="S26" s="106">
+      <c r="S26" s="116">
         <v>0</v>
       </c>
-      <c r="T26" s="107"/>
-      <c r="U26" s="106">
+      <c r="T26" s="117"/>
+      <c r="U26" s="116">
         <v>0</v>
       </c>
-      <c r="V26" s="107"/>
-      <c r="W26" s="110">
+      <c r="V26" s="117"/>
+      <c r="W26" s="120">
         <v>1</v>
       </c>
-      <c r="X26" s="111"/>
-      <c r="Y26" s="106">
+      <c r="X26" s="121"/>
+      <c r="Y26" s="116">
         <v>0</v>
       </c>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="106">
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="116">
         <v>0</v>
       </c>
-      <c r="AB26" s="107"/>
+      <c r="AB26" s="117"/>
       <c r="AC26" s="82"/>
       <c r="AD26" s="82"/>
       <c r="AE26" s="82"/>
@@ -17118,16 +17424,16 @@
       <c r="P27" s="82"/>
       <c r="Q27" s="82"/>
       <c r="R27" s="82"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="108"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="113"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="108"/>
-      <c r="AB27" s="109"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="123"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="119"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="119"/>
       <c r="AC27" s="82"/>
       <c r="AD27" s="82"/>
       <c r="AE27" s="82"/>
@@ -17138,26 +17444,26 @@
       <c r="P28" s="82"/>
       <c r="Q28" s="82"/>
       <c r="R28" s="82"/>
-      <c r="S28" s="106">
+      <c r="S28" s="116">
         <v>0</v>
       </c>
-      <c r="T28" s="107"/>
-      <c r="U28" s="106">
+      <c r="T28" s="117"/>
+      <c r="U28" s="116">
         <v>0</v>
       </c>
-      <c r="V28" s="107"/>
-      <c r="W28" s="106">
+      <c r="V28" s="117"/>
+      <c r="W28" s="116">
         <v>0</v>
       </c>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="110">
+      <c r="X28" s="117"/>
+      <c r="Y28" s="120">
         <v>1</v>
       </c>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="110">
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="120">
         <v>1</v>
       </c>
-      <c r="AB28" s="111"/>
+      <c r="AB28" s="121"/>
       <c r="AC28" s="82"/>
       <c r="AD28" s="82"/>
       <c r="AE28" s="82"/>
@@ -17168,16 +17474,16 @@
       <c r="P29" s="82"/>
       <c r="Q29" s="82"/>
       <c r="R29" s="82"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="113"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="119"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="123"/>
       <c r="AC29" s="82"/>
       <c r="AD29" s="82"/>
       <c r="AE29" s="82"/>
@@ -17327,46 +17633,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="S28:T29"/>
+    <mergeCell ref="U28:V29"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="S24:T25"/>
+    <mergeCell ref="U24:V25"/>
+    <mergeCell ref="W24:X25"/>
+    <mergeCell ref="Y24:Z25"/>
+    <mergeCell ref="AA24:AB25"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="W26:X27"/>
+    <mergeCell ref="Y26:Z27"/>
+    <mergeCell ref="AA26:AB27"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="S22:T23"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB8"/>
     <mergeCell ref="AA9:AB10"/>
     <mergeCell ref="Y9:Z10"/>
     <mergeCell ref="W9:X10"/>
     <mergeCell ref="U9:V10"/>
     <mergeCell ref="S9:T10"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="S22:T23"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="S26:T27"/>
-    <mergeCell ref="U26:V27"/>
-    <mergeCell ref="W26:X27"/>
-    <mergeCell ref="Y26:Z27"/>
-    <mergeCell ref="AA26:AB27"/>
-    <mergeCell ref="S24:T25"/>
-    <mergeCell ref="U24:V25"/>
-    <mergeCell ref="W24:X25"/>
-    <mergeCell ref="Y24:Z25"/>
-    <mergeCell ref="AA24:AB25"/>
-    <mergeCell ref="S28:T29"/>
-    <mergeCell ref="U28:V29"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17378,15 +17684,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="4:17">
       <c r="D1" s="4"/>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="86" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5">
@@ -17423,7 +17729,7 @@
       <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="4:17">
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="86" t="s">
         <v>147</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -17481,19 +17787,19 @@
     <row r="4" spans="4:17">
       <c r="D4" s="4"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="7"/>
@@ -17504,12 +17810,12 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="7"/>
@@ -17518,18 +17824,18 @@
       <c r="D6" s="4"/>
       <c r="E6" s="8"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123" t="s">
+      <c r="H6" s="93"/>
+      <c r="I6" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="7"/>
@@ -17540,12 +17846,12 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="7"/>
@@ -17555,17 +17861,17 @@
       <c r="E8" s="8"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123" t="s">
+      <c r="I8" s="93"/>
+      <c r="J8" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="7"/>
@@ -17578,10 +17884,10 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="7"/>
@@ -17591,16 +17897,16 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="123" t="s">
+      <c r="J10" s="93"/>
+      <c r="K10" s="94" t="s">
         <v>146</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="114"/>
+      <c r="N10" s="85"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="7"/>
@@ -17611,12 +17917,12 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="7"/>
@@ -17627,16 +17933,16 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="121" t="s">
+      <c r="I12" s="85"/>
+      <c r="J12" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="122"/>
-      <c r="L12" s="123" t="s">
+      <c r="K12" s="93"/>
+      <c r="L12" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="7"/>
@@ -17665,14 +17971,14 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="121" t="s">
+      <c r="K14" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="123" t="s">
+      <c r="L14" s="93"/>
+      <c r="M14" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="N14" s="114"/>
+      <c r="N14" s="85"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="7"/>
@@ -17681,16 +17987,16 @@
       <c r="D15" s="4"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="120" t="s">
+      <c r="G15" s="91" t="s">
         <v>148</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="7"/>
@@ -17701,14 +18007,14 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="117" t="s">
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="118"/>
-      <c r="N16" s="119" t="s">
+      <c r="M16" s="89"/>
+      <c r="N16" s="90" t="s">
         <v>146</v>
       </c>
       <c r="O16" s="8"/>
@@ -17717,7 +18023,7 @@
     </row>
     <row r="17" spans="4:17">
       <c r="D17" s="4"/>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="86" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="5">
@@ -17729,18 +18035,18 @@
       <c r="H17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="4:17">
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="86" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -17824,6 +18130,1610 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:T71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="4" max="4" width="8.796875" customWidth="1"/>
+    <col min="5" max="5" width="1.69921875" customWidth="1"/>
+    <col min="19" max="19" width="4.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:16">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="4:16">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="4:16">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="127">
+        <v>0</v>
+      </c>
+      <c r="I3" s="127">
+        <v>1</v>
+      </c>
+      <c r="J3" s="127">
+        <v>2</v>
+      </c>
+      <c r="K3" s="127">
+        <v>3</v>
+      </c>
+      <c r="L3" s="127">
+        <v>4</v>
+      </c>
+      <c r="M3" s="127">
+        <v>5</v>
+      </c>
+      <c r="N3" s="127">
+        <v>6</v>
+      </c>
+      <c r="O3" s="69"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="4:16">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="69"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="4:16">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="4:16">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="140" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="4:16">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="4:16">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="4:16">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="4:16">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="4:16">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="4:16">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="4:16">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="4:16">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="4:16">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="4:16">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="4:20">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="4:20">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+    </row>
+    <row r="19" spans="4:20">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+    </row>
+    <row r="20" spans="4:20">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="21" spans="4:20">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3</v>
+      </c>
+      <c r="L21" s="2">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>6</v>
+      </c>
+      <c r="O21" s="69"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+    </row>
+    <row r="22" spans="4:20">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="69"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+    </row>
+    <row r="23" spans="4:20">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+    </row>
+    <row r="24" spans="4:20">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+    </row>
+    <row r="25" spans="4:20">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+    </row>
+    <row r="26" spans="4:20">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+    </row>
+    <row r="27" spans="4:20">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+    </row>
+    <row r="28" spans="4:20">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+    </row>
+    <row r="29" spans="4:20">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+    </row>
+    <row r="30" spans="4:20">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+    </row>
+    <row r="31" spans="4:20">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+    </row>
+    <row r="32" spans="4:20">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+    </row>
+    <row r="33" spans="4:20">
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+    </row>
+    <row r="34" spans="4:20">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+    </row>
+    <row r="35" spans="4:20">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+    </row>
+    <row r="36" spans="4:20">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="J36" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+    </row>
+    <row r="37" spans="4:20">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+    </row>
+    <row r="38" spans="4:20">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+    </row>
+    <row r="39" spans="4:20">
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M39" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+    </row>
+    <row r="40" spans="4:20">
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+    </row>
+    <row r="41" spans="4:20">
+      <c r="D41" s="28"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="28"/>
+    </row>
+    <row r="42" spans="4:20">
+      <c r="D42" s="28"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="28"/>
+    </row>
+    <row r="43" spans="4:20">
+      <c r="D43" s="28"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3</v>
+      </c>
+      <c r="L43" s="2">
+        <v>4</v>
+      </c>
+      <c r="M43" s="2">
+        <v>5</v>
+      </c>
+      <c r="N43" s="2">
+        <v>6</v>
+      </c>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="28"/>
+    </row>
+    <row r="44" spans="4:20">
+      <c r="D44" s="28"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="K44" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="28"/>
+    </row>
+    <row r="45" spans="4:20">
+      <c r="D45" s="28"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="136" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="28"/>
+    </row>
+    <row r="46" spans="4:20">
+      <c r="D46" s="28"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="28"/>
+    </row>
+    <row r="47" spans="4:20">
+      <c r="D47" s="28"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="28"/>
+    </row>
+    <row r="48" spans="4:20">
+      <c r="D48" s="28"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="28"/>
+    </row>
+    <row r="49" spans="4:20">
+      <c r="D49" s="28"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="28"/>
+    </row>
+    <row r="50" spans="4:20">
+      <c r="D50" s="28"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="70"/>
+      <c r="T50" s="28"/>
+    </row>
+    <row r="51" spans="4:20">
+      <c r="D51" s="28"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="70"/>
+      <c r="T51" s="28"/>
+    </row>
+    <row r="52" spans="4:20">
+      <c r="D52" s="28"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="28"/>
+    </row>
+    <row r="53" spans="4:20">
+      <c r="D53" s="28"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="28"/>
+    </row>
+    <row r="54" spans="4:20">
+      <c r="D54" s="28"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="K54" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="28"/>
+    </row>
+    <row r="55" spans="4:20">
+      <c r="D55" s="28"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="28"/>
+    </row>
+    <row r="56" spans="4:20">
+      <c r="D56" s="28"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="K56" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M56" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="28"/>
+    </row>
+    <row r="57" spans="4:20">
+      <c r="D57" s="28"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="J57" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="K57" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="28"/>
+    </row>
+    <row r="58" spans="4:20">
+      <c r="D58" s="28"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="28"/>
+    </row>
+    <row r="59" spans="4:20">
+      <c r="D59" s="28"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="K59" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M59" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="N59" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="28"/>
+    </row>
+    <row r="60" spans="4:20">
+      <c r="D60" s="28"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="K60" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="M60" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="28"/>
+    </row>
+    <row r="61" spans="4:20">
+      <c r="D61" s="28"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="28"/>
+    </row>
+    <row r="62" spans="4:20">
+      <c r="D62" s="28"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="K62" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L62" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M62" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="N62" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="O62" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="28"/>
+    </row>
+    <row r="63" spans="4:20">
+      <c r="D63" s="28"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="L63" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="M63" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="N63" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="O63" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="28"/>
+    </row>
+    <row r="64" spans="4:20">
+      <c r="D64" s="28"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="28"/>
+    </row>
+    <row r="65" spans="4:20">
+      <c r="D65" s="28"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="70"/>
+      <c r="T65" s="28"/>
+    </row>
+    <row r="66" spans="4:20">
+      <c r="D66" s="28"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="70"/>
+      <c r="T66" s="28"/>
+    </row>
+    <row r="67" spans="4:20">
+      <c r="D67" s="28"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" s="70"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="70"/>
+      <c r="S67" s="70"/>
+      <c r="T67" s="28"/>
+    </row>
+    <row r="68" spans="4:20">
+      <c r="D68" s="28"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+    </row>
+    <row r="69" spans="4:20">
+      <c r="D69" s="28"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+    </row>
+    <row r="70" spans="4:20">
+      <c r="D70" s="28"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+    </row>
+    <row r="71" spans="4:20">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="J16:N16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17841,7 +19751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19673,8 +21583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -20972,7 +22882,7 @@
   <dimension ref="K1:AM349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="15.6"/>
@@ -21017,12 +22927,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="97"/>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -21047,15 +22957,15 @@
     <row r="3" spans="11:39" ht="15.6" customHeight="1">
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -21083,10 +22993,10 @@
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="109"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -21114,10 +23024,10 @@
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="105"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="48"/>
       <c r="U5" s="47" t="s">
         <v>100</v>
@@ -21144,26 +23054,26 @@
     <row r="6" spans="11:39" ht="15.6" customHeight="1">
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="92"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="96"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="115"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
-      <c r="Y6" s="85" t="s">
+      <c r="Y6" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="87"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="97"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
@@ -21188,15 +23098,15 @@
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="88" t="s">
+      <c r="V7" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="89"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="106"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
@@ -21224,10 +23134,10 @@
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="102"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="109"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
@@ -21255,10 +23165,10 @@
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
       <c r="X9" s="49"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="105"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="112"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
@@ -21283,26 +23193,26 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="91" t="s">
+      <c r="V10" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="92"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="96"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="115"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
       <c r="AF10" s="48"/>
       <c r="AG10" s="48"/>
-      <c r="AH10" s="85" t="s">
+      <c r="AH10" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="87"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="97"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48"/>
     </row>
@@ -21327,15 +23237,15 @@
       <c r="AB11" s="48"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="88" t="s">
+      <c r="AE11" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="106"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48"/>
     </row>
@@ -21363,10 +23273,10 @@
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="101"/>
-      <c r="AJ12" s="101"/>
-      <c r="AK12" s="102"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="109"/>
       <c r="AL12" s="48"/>
       <c r="AM12" s="48"/>
     </row>
@@ -21394,10 +23304,10 @@
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
       <c r="AG13" s="49"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="104"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="105"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="111"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="112"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48"/>
     </row>
@@ -21422,15 +23332,15 @@
       <c r="AB14" s="48"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="91" t="s">
+      <c r="AE14" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="96"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="115"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -31881,6 +33791,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AE14:AG14"/>
@@ -31891,11 +33806,6 @@
     <mergeCell ref="AH14:AK14"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="Y6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ref/2022鐵人賽圖片.xlsx
+++ b/ref/2022鐵人賽圖片.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1032" windowHeight="5112" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="第24天" sheetId="20" r:id="rId14"/>
     <sheet name="方格紙 (2)" sheetId="17" r:id="rId15"/>
     <sheet name="方格紙" sheetId="6" r:id="rId16"/>
+    <sheet name="第02天 (2)" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="179">
   <si>
     <t>nums</t>
     <phoneticPr fontId="1"/>
@@ -1097,12 +1098,60 @@
     <t>解答為4</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>hash陣列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>val = 9 - 2 = 7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index = 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>val = 9 - 11 = -2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 檢查 hash[9 - 11的絕對值] val是否為 11，否，繼續建表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 檢查 hash[9 - 7的絕對值] val是否為 7，是，已找到 2 + 7 = 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 把nums[0] 放入陣列</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,6 +1340,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1811,7 +1868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2097,6 +2154,42 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2122,6 +2215,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2151,15 +2253,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2184,31 +2277,22 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2220,32 +2304,17 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -16952,26 +17021,26 @@
       <c r="P7" s="82"/>
       <c r="Q7" s="82"/>
       <c r="R7" s="82"/>
-      <c r="S7" s="120">
+      <c r="S7" s="132">
         <v>1</v>
       </c>
-      <c r="T7" s="121"/>
-      <c r="U7" s="120">
+      <c r="T7" s="133"/>
+      <c r="U7" s="132">
         <v>1</v>
       </c>
-      <c r="V7" s="121"/>
-      <c r="W7" s="120">
+      <c r="V7" s="133"/>
+      <c r="W7" s="132">
         <v>1</v>
       </c>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="120">
+      <c r="X7" s="133"/>
+      <c r="Y7" s="132">
         <v>1</v>
       </c>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="116">
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="128">
         <v>0</v>
       </c>
-      <c r="AB7" s="117"/>
+      <c r="AB7" s="129"/>
       <c r="AC7" s="82"/>
       <c r="AD7" s="82"/>
       <c r="AE7" s="82"/>
@@ -16982,16 +17051,16 @@
       <c r="P8" s="82"/>
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="119"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="135"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="131"/>
       <c r="AC8" s="82"/>
       <c r="AD8" s="82"/>
       <c r="AE8" s="82"/>
@@ -17002,26 +17071,26 @@
       <c r="P9" s="82"/>
       <c r="Q9" s="82"/>
       <c r="R9" s="82"/>
-      <c r="S9" s="120">
+      <c r="S9" s="132">
         <v>1</v>
       </c>
-      <c r="T9" s="121"/>
-      <c r="U9" s="120">
+      <c r="T9" s="133"/>
+      <c r="U9" s="132">
         <v>1</v>
       </c>
-      <c r="V9" s="121"/>
-      <c r="W9" s="116">
+      <c r="V9" s="133"/>
+      <c r="W9" s="128">
         <v>0</v>
       </c>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="120">
+      <c r="X9" s="129"/>
+      <c r="Y9" s="132">
         <v>1</v>
       </c>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="116">
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="128">
         <v>0</v>
       </c>
-      <c r="AB9" s="117"/>
+      <c r="AB9" s="129"/>
       <c r="AC9" s="82"/>
       <c r="AD9" s="82"/>
       <c r="AE9" s="82"/>
@@ -17032,16 +17101,16 @@
       <c r="P10" s="82"/>
       <c r="Q10" s="82"/>
       <c r="R10" s="82"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="119"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="131"/>
       <c r="AC10" s="82"/>
       <c r="AD10" s="82"/>
       <c r="AE10" s="82"/>
@@ -17052,26 +17121,26 @@
       <c r="P11" s="82"/>
       <c r="Q11" s="82"/>
       <c r="R11" s="82"/>
-      <c r="S11" s="120">
+      <c r="S11" s="132">
         <v>1</v>
       </c>
-      <c r="T11" s="121"/>
-      <c r="U11" s="120">
+      <c r="T11" s="133"/>
+      <c r="U11" s="132">
         <v>1</v>
       </c>
-      <c r="V11" s="121"/>
-      <c r="W11" s="116">
+      <c r="V11" s="133"/>
+      <c r="W11" s="128">
         <v>0</v>
       </c>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="116">
+      <c r="X11" s="129"/>
+      <c r="Y11" s="128">
         <v>0</v>
       </c>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="116">
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="128">
         <v>0</v>
       </c>
-      <c r="AB11" s="117"/>
+      <c r="AB11" s="129"/>
       <c r="AC11" s="82"/>
       <c r="AD11" s="82"/>
       <c r="AE11" s="82"/>
@@ -17082,16 +17151,16 @@
       <c r="P12" s="82"/>
       <c r="Q12" s="82"/>
       <c r="R12" s="82"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="119"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="131"/>
       <c r="AC12" s="82"/>
       <c r="AD12" s="82"/>
       <c r="AE12" s="82"/>
@@ -17102,26 +17171,26 @@
       <c r="P13" s="82"/>
       <c r="Q13" s="82"/>
       <c r="R13" s="82"/>
-      <c r="S13" s="116">
+      <c r="S13" s="128">
         <v>0</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="116">
+      <c r="T13" s="129"/>
+      <c r="U13" s="128">
         <v>0</v>
       </c>
-      <c r="V13" s="117"/>
-      <c r="W13" s="116">
+      <c r="V13" s="129"/>
+      <c r="W13" s="128">
         <v>0</v>
       </c>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="116">
+      <c r="X13" s="129"/>
+      <c r="Y13" s="128">
         <v>0</v>
       </c>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="116">
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="128">
         <v>0</v>
       </c>
-      <c r="AB13" s="117"/>
+      <c r="AB13" s="129"/>
       <c r="AC13" s="83"/>
       <c r="AD13" s="82"/>
       <c r="AE13" s="82"/>
@@ -17132,16 +17201,16 @@
       <c r="P14" s="82"/>
       <c r="Q14" s="82"/>
       <c r="R14" s="82"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="119"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="131"/>
       <c r="AC14" s="83"/>
       <c r="AD14" s="82"/>
       <c r="AE14" s="82"/>
@@ -17294,26 +17363,26 @@
       <c r="P22" s="82"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="82"/>
-      <c r="S22" s="120">
+      <c r="S22" s="132">
         <v>1</v>
       </c>
-      <c r="T22" s="121"/>
-      <c r="U22" s="120">
+      <c r="T22" s="133"/>
+      <c r="U22" s="132">
         <v>1</v>
       </c>
-      <c r="V22" s="121"/>
-      <c r="W22" s="116">
+      <c r="V22" s="133"/>
+      <c r="W22" s="128">
         <v>0</v>
       </c>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="116">
+      <c r="X22" s="129"/>
+      <c r="Y22" s="128">
         <v>0</v>
       </c>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="116">
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="128">
         <v>0</v>
       </c>
-      <c r="AB22" s="117"/>
+      <c r="AB22" s="129"/>
       <c r="AC22" s="82"/>
       <c r="AD22" s="82"/>
       <c r="AE22" s="82"/>
@@ -17324,16 +17393,16 @@
       <c r="P23" s="82"/>
       <c r="Q23" s="82"/>
       <c r="R23" s="82"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="119"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="119"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="119"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="130"/>
+      <c r="AB23" s="131"/>
       <c r="AC23" s="82"/>
       <c r="AD23" s="82"/>
       <c r="AE23" s="82"/>
@@ -17344,26 +17413,26 @@
       <c r="P24" s="82"/>
       <c r="Q24" s="82"/>
       <c r="R24" s="82"/>
-      <c r="S24" s="120">
+      <c r="S24" s="132">
         <v>1</v>
       </c>
-      <c r="T24" s="121"/>
-      <c r="U24" s="120">
+      <c r="T24" s="133"/>
+      <c r="U24" s="132">
         <v>1</v>
       </c>
-      <c r="V24" s="121"/>
-      <c r="W24" s="116">
+      <c r="V24" s="133"/>
+      <c r="W24" s="128">
         <v>0</v>
       </c>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="116">
+      <c r="X24" s="129"/>
+      <c r="Y24" s="128">
         <v>0</v>
       </c>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="116">
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="128">
         <v>0</v>
       </c>
-      <c r="AB24" s="117"/>
+      <c r="AB24" s="129"/>
       <c r="AC24" s="82"/>
       <c r="AD24" s="82"/>
       <c r="AE24" s="82"/>
@@ -17374,16 +17443,16 @@
       <c r="P25" s="82"/>
       <c r="Q25" s="82"/>
       <c r="R25" s="82"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="119"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="131"/>
       <c r="AC25" s="82"/>
       <c r="AD25" s="82"/>
       <c r="AE25" s="82"/>
@@ -17394,26 +17463,26 @@
       <c r="P26" s="82"/>
       <c r="Q26" s="82"/>
       <c r="R26" s="82"/>
-      <c r="S26" s="116">
+      <c r="S26" s="128">
         <v>0</v>
       </c>
-      <c r="T26" s="117"/>
-      <c r="U26" s="116">
+      <c r="T26" s="129"/>
+      <c r="U26" s="128">
         <v>0</v>
       </c>
-      <c r="V26" s="117"/>
-      <c r="W26" s="120">
+      <c r="V26" s="129"/>
+      <c r="W26" s="132">
         <v>1</v>
       </c>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="116">
+      <c r="X26" s="133"/>
+      <c r="Y26" s="128">
         <v>0</v>
       </c>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="116">
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="128">
         <v>0</v>
       </c>
-      <c r="AB26" s="117"/>
+      <c r="AB26" s="129"/>
       <c r="AC26" s="82"/>
       <c r="AD26" s="82"/>
       <c r="AE26" s="82"/>
@@ -17424,16 +17493,16 @@
       <c r="P27" s="82"/>
       <c r="Q27" s="82"/>
       <c r="R27" s="82"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="123"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="119"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="119"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="131"/>
       <c r="AC27" s="82"/>
       <c r="AD27" s="82"/>
       <c r="AE27" s="82"/>
@@ -17444,26 +17513,26 @@
       <c r="P28" s="82"/>
       <c r="Q28" s="82"/>
       <c r="R28" s="82"/>
-      <c r="S28" s="116">
+      <c r="S28" s="128">
         <v>0</v>
       </c>
-      <c r="T28" s="117"/>
-      <c r="U28" s="116">
+      <c r="T28" s="129"/>
+      <c r="U28" s="128">
         <v>0</v>
       </c>
-      <c r="V28" s="117"/>
-      <c r="W28" s="116">
+      <c r="V28" s="129"/>
+      <c r="W28" s="128">
         <v>0</v>
       </c>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="120">
+      <c r="X28" s="129"/>
+      <c r="Y28" s="132">
         <v>1</v>
       </c>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="120">
+      <c r="Z28" s="133"/>
+      <c r="AA28" s="132">
         <v>1</v>
       </c>
-      <c r="AB28" s="121"/>
+      <c r="AB28" s="133"/>
       <c r="AC28" s="82"/>
       <c r="AD28" s="82"/>
       <c r="AE28" s="82"/>
@@ -17474,16 +17543,16 @@
       <c r="P29" s="82"/>
       <c r="Q29" s="82"/>
       <c r="R29" s="82"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="119"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="123"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="123"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="135"/>
       <c r="AC29" s="82"/>
       <c r="AD29" s="82"/>
       <c r="AE29" s="82"/>
@@ -17633,46 +17702,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="S22:T23"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="W26:X27"/>
+    <mergeCell ref="Y26:Z27"/>
+    <mergeCell ref="AA26:AB27"/>
+    <mergeCell ref="S24:T25"/>
+    <mergeCell ref="U24:V25"/>
+    <mergeCell ref="W24:X25"/>
+    <mergeCell ref="Y24:Z25"/>
+    <mergeCell ref="AA24:AB25"/>
     <mergeCell ref="S28:T29"/>
     <mergeCell ref="U28:V29"/>
     <mergeCell ref="W28:X29"/>
     <mergeCell ref="Y28:Z29"/>
     <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="S24:T25"/>
-    <mergeCell ref="U24:V25"/>
-    <mergeCell ref="W24:X25"/>
-    <mergeCell ref="Y24:Z25"/>
-    <mergeCell ref="AA24:AB25"/>
-    <mergeCell ref="S26:T27"/>
-    <mergeCell ref="U26:V27"/>
-    <mergeCell ref="W26:X27"/>
-    <mergeCell ref="Y26:Z27"/>
-    <mergeCell ref="AA26:AB27"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="S22:T23"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="S9:T10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18133,8 +18202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18178,28 +18247,28 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="125" t="s">
+      <c r="G3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="98">
         <v>0</v>
       </c>
-      <c r="I3" s="127">
+      <c r="I3" s="98">
         <v>1</v>
       </c>
-      <c r="J3" s="127">
+      <c r="J3" s="98">
         <v>2</v>
       </c>
-      <c r="K3" s="127">
+      <c r="K3" s="98">
         <v>3</v>
       </c>
-      <c r="L3" s="127">
+      <c r="L3" s="98">
         <v>4</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="98">
         <v>5</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="98">
         <v>6</v>
       </c>
       <c r="O3" s="69"/>
@@ -18212,25 +18281,25 @@
       <c r="G4" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="132" t="s">
+      <c r="I4" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="132" t="s">
+      <c r="J4" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="132" t="s">
+      <c r="K4" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="132" t="s">
+      <c r="L4" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="132" t="s">
+      <c r="N4" s="103" t="s">
         <v>65</v>
       </c>
       <c r="O4" s="69"/>
@@ -18240,14 +18309,14 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="62"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
@@ -18258,15 +18327,15 @@
       <c r="G6" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="142"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="138"/>
       <c r="O6" s="69"/>
       <c r="P6" s="28"/>
     </row>
@@ -18275,13 +18344,13 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="126"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="97"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
     </row>
@@ -18294,13 +18363,13 @@
       <c r="G8" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="131"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="102"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
     </row>
@@ -18324,15 +18393,15 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="137" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="141"/>
       <c r="O10" s="69"/>
       <c r="P10" s="28"/>
     </row>
@@ -18342,12 +18411,12 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="70"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
     </row>
@@ -18360,12 +18429,12 @@
       <c r="G12" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="131"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="102"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -18390,13 +18459,13 @@
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="131"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="102"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
     </row>
@@ -18421,14 +18490,14 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="133" t="s">
+      <c r="I16" s="101"/>
+      <c r="J16" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="135"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="144"/>
       <c r="O16" s="69"/>
       <c r="P16" s="28"/>
     </row>
@@ -18439,11 +18508,11 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
     </row>
@@ -18505,7 +18574,7 @@
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="125" t="s">
+      <c r="G21" s="96" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="2">
@@ -18543,25 +18612,25 @@
       <c r="G22" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="128" t="s">
+      <c r="H22" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="128" t="s">
+      <c r="I22" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="128" t="s">
+      <c r="J22" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="128" t="s">
+      <c r="K22" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="128" t="s">
+      <c r="L22" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="M22" s="128" t="s">
+      <c r="M22" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="128" t="s">
+      <c r="N22" s="99" t="s">
         <v>65</v>
       </c>
       <c r="O22" s="69"/>
@@ -18620,7 +18689,7 @@
       <c r="G25" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H25" s="128" t="s">
+      <c r="H25" s="99" t="s">
         <v>65</v>
       </c>
       <c r="I25" s="62" t="s">
@@ -18662,10 +18731,10 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="128" t="s">
+      <c r="H27" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="128" t="s">
+      <c r="I27" s="99" t="s">
         <v>149</v>
       </c>
       <c r="J27" s="62" t="s">
@@ -18706,13 +18775,13 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="128" t="s">
+      <c r="H29" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="128" t="s">
+      <c r="I29" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="128" t="s">
+      <c r="J29" s="99" t="s">
         <v>65</v>
       </c>
       <c r="K29" s="62" t="s">
@@ -18752,16 +18821,16 @@
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="128" t="s">
+      <c r="H31" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="128" t="s">
+      <c r="I31" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="128" t="s">
+      <c r="J31" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="128" t="s">
+      <c r="K31" s="99" t="s">
         <v>65</v>
       </c>
       <c r="L31" s="62" t="s">
@@ -18800,19 +18869,19 @@
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
-      <c r="H33" s="128" t="s">
+      <c r="H33" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="128" t="s">
+      <c r="I33" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="128" t="s">
+      <c r="J33" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="128" t="s">
+      <c r="K33" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="128" t="s">
+      <c r="L33" s="99" t="s">
         <v>149</v>
       </c>
       <c r="M33" s="62" t="s">
@@ -18832,16 +18901,16 @@
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="128" t="s">
+      <c r="I34" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="128" t="s">
+      <c r="J34" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="K34" s="128" t="s">
+      <c r="K34" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L34" s="128" t="s">
+      <c r="L34" s="99" t="s">
         <v>149</v>
       </c>
       <c r="M34" s="28"/>
@@ -18878,19 +18947,19 @@
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="128" t="s">
+      <c r="I36" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="128" t="s">
+      <c r="J36" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="K36" s="128" t="s">
+      <c r="K36" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="128" t="s">
+      <c r="L36" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="M36" s="128" t="s">
+      <c r="M36" s="99" t="s">
         <v>65</v>
       </c>
       <c r="N36" s="62" t="s">
@@ -18910,16 +18979,16 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="128" t="s">
+      <c r="J37" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="K37" s="128" t="s">
+      <c r="K37" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L37" s="128" t="s">
+      <c r="L37" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="M37" s="128" t="s">
+      <c r="M37" s="99" t="s">
         <v>65</v>
       </c>
       <c r="N37" s="28"/>
@@ -18956,19 +19025,19 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="128" t="s">
+      <c r="J39" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="128" t="s">
+      <c r="K39" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L39" s="128" t="s">
+      <c r="L39" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="M39" s="128" t="s">
+      <c r="M39" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="N39" s="128" t="s">
+      <c r="N39" s="99" t="s">
         <v>65</v>
       </c>
       <c r="O39" s="62" t="s">
@@ -19041,7 +19110,7 @@
       <c r="D43" s="28"/>
       <c r="E43" s="70"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="125" t="s">
+      <c r="G43" s="96" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="2">
@@ -19079,25 +19148,25 @@
       <c r="G44" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="H44" s="132" t="s">
+      <c r="H44" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="132" t="s">
+      <c r="I44" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="J44" s="132" t="s">
+      <c r="J44" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="K44" s="132" t="s">
+      <c r="K44" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="L44" s="132" t="s">
+      <c r="L44" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="M44" s="132" t="s">
+      <c r="M44" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="N44" s="132" t="s">
+      <c r="N44" s="103" t="s">
         <v>65</v>
       </c>
       <c r="O44" s="28"/>
@@ -19113,7 +19182,7 @@
       <c r="F45" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="136" t="s">
+      <c r="G45" s="104" t="s">
         <v>161</v>
       </c>
       <c r="H45" s="28"/>
@@ -19175,7 +19244,7 @@
       <c r="G48" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="99" t="s">
         <v>65</v>
       </c>
       <c r="I48" s="62" t="s">
@@ -19217,10 +19286,10 @@
       <c r="E50" s="70"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
-      <c r="H50" s="128" t="s">
+      <c r="H50" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I50" s="128" t="s">
+      <c r="I50" s="99" t="s">
         <v>65</v>
       </c>
       <c r="J50" s="62" t="s">
@@ -19261,13 +19330,13 @@
       <c r="E52" s="70"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
-      <c r="H52" s="128" t="s">
+      <c r="H52" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I52" s="128" t="s">
+      <c r="I52" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="J52" s="128" t="s">
+      <c r="J52" s="99" t="s">
         <v>149</v>
       </c>
       <c r="K52" s="62" t="s">
@@ -19307,16 +19376,16 @@
       <c r="E54" s="70"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
-      <c r="H54" s="143" t="s">
+      <c r="H54" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="I54" s="143" t="s">
+      <c r="I54" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="J54" s="143" t="s">
+      <c r="J54" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="K54" s="143" t="s">
+      <c r="K54" s="105" t="s">
         <v>65</v>
       </c>
       <c r="L54" s="62" t="s">
@@ -19355,19 +19424,19 @@
       <c r="E56" s="70"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28"/>
-      <c r="H56" s="128" t="s">
+      <c r="H56" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I56" s="128" t="s">
+      <c r="I56" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="J56" s="128" t="s">
+      <c r="J56" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="K56" s="128" t="s">
+      <c r="K56" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L56" s="128" t="s">
+      <c r="L56" s="99" t="s">
         <v>149</v>
       </c>
       <c r="M56" s="62" t="s">
@@ -19387,16 +19456,16 @@
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="128" t="s">
+      <c r="I57" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="128" t="s">
+      <c r="J57" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="K57" s="128" t="s">
+      <c r="K57" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="128" t="s">
+      <c r="L57" s="99" t="s">
         <v>149</v>
       </c>
       <c r="M57" s="28"/>
@@ -19433,19 +19502,19 @@
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="128" t="s">
+      <c r="I59" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="J59" s="128" t="s">
+      <c r="J59" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="K59" s="128" t="s">
+      <c r="K59" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L59" s="128" t="s">
+      <c r="L59" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="M59" s="128" t="s">
+      <c r="M59" s="99" t="s">
         <v>149</v>
       </c>
       <c r="N59" s="62" t="s">
@@ -19465,16 +19534,16 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="143" t="s">
+      <c r="J60" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="K60" s="143" t="s">
+      <c r="K60" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="L60" s="143" t="s">
+      <c r="L60" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="M60" s="143" t="s">
+      <c r="M60" s="105" t="s">
         <v>149</v>
       </c>
       <c r="N60" s="28"/>
@@ -19511,19 +19580,19 @@
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
-      <c r="J62" s="128" t="s">
+      <c r="J62" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="K62" s="128" t="s">
+      <c r="K62" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L62" s="128" t="s">
+      <c r="L62" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="M62" s="128" t="s">
+      <c r="M62" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="N62" s="128" t="s">
+      <c r="N62" s="99" t="s">
         <v>65</v>
       </c>
       <c r="O62" s="62" t="s">
@@ -19543,19 +19612,19 @@
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
       <c r="J63" s="28"/>
-      <c r="K63" s="143" t="s">
+      <c r="K63" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="L63" s="143" t="s">
+      <c r="L63" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="M63" s="143" t="s">
+      <c r="M63" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="N63" s="143" t="s">
+      <c r="N63" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="144" t="s">
+      <c r="O63" s="106" t="s">
         <v>166</v>
       </c>
       <c r="P63" s="28"/>
@@ -19720,12 +19789,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J16:N16"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="I14:M14"/>
-    <mergeCell ref="J16:N16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19766,6 +19835,448 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="3" max="3" width="1.3984375" customWidth="1"/>
+    <col min="19" max="19" width="6.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:19">
+      <c r="C1" s="28"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="3:19">
+      <c r="C2" s="28"/>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" s="28"/>
+      <c r="D3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="145">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="3:19">
+      <c r="C4" s="28"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="146" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="C5" s="28"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6" s="28"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="28"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="28"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="146" t="s">
+        <v>175</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="28"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" s="28"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>6</v>
+      </c>
+      <c r="M10" s="5">
+        <v>7</v>
+      </c>
+      <c r="N10" s="5">
+        <v>8</v>
+      </c>
+      <c r="O10" s="5">
+        <v>9</v>
+      </c>
+      <c r="P10" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>11</v>
+      </c>
+      <c r="R10" s="5">
+        <v>12</v>
+      </c>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="28"/>
+      <c r="D11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="148"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="C12" s="28"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="C13" s="28"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="28"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="28"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="28"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="28"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="16"/>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="28"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22927,12 +23438,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="95" t="s">
+      <c r="P2" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="109"/>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
@@ -22957,15 +23468,15 @@
     <row r="3" spans="11:39" ht="15.6" customHeight="1">
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="99"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="106"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="121"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
@@ -22993,10 +23504,10 @@
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="109"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="124"/>
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -23024,10 +23535,10 @@
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="112"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="127"/>
       <c r="T5" s="48"/>
       <c r="U5" s="47" t="s">
         <v>100</v>
@@ -23054,26 +23565,26 @@
     <row r="6" spans="11:39" ht="15.6" customHeight="1">
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="101" t="s">
+      <c r="M6" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="102"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="115"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="118"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
       <c r="X6" s="48"/>
-      <c r="Y6" s="95" t="s">
+      <c r="Y6" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="97"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="109"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
@@ -23098,15 +23609,15 @@
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="98" t="s">
+      <c r="V7" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="W7" s="99"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="106"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="121"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
@@ -23134,10 +23645,10 @@
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="109"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="124"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
@@ -23165,10 +23676,10 @@
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
       <c r="X9" s="49"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="112"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="127"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
@@ -23193,26 +23704,26 @@
       <c r="S10" s="48"/>
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
-      <c r="V10" s="101" t="s">
+      <c r="V10" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="102"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="115"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="118"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
       <c r="AF10" s="48"/>
       <c r="AG10" s="48"/>
-      <c r="AH10" s="95" t="s">
+      <c r="AH10" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="97"/>
+      <c r="AI10" s="108"/>
+      <c r="AJ10" s="108"/>
+      <c r="AK10" s="109"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48"/>
     </row>
@@ -23237,15 +23748,15 @@
       <c r="AB11" s="48"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="98" t="s">
+      <c r="AE11" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="105"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="106"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="119"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="121"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48"/>
     </row>
@@ -23273,10 +23784,10 @@
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="108"/>
-      <c r="AJ12" s="108"/>
-      <c r="AK12" s="109"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="123"/>
+      <c r="AJ12" s="123"/>
+      <c r="AK12" s="124"/>
       <c r="AL12" s="48"/>
       <c r="AM12" s="48"/>
     </row>
@@ -23304,10 +23815,10 @@
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
       <c r="AG13" s="49"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="111"/>
-      <c r="AJ13" s="111"/>
-      <c r="AK13" s="112"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="126"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="127"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48"/>
     </row>
@@ -23332,15 +23843,15 @@
       <c r="AB14" s="48"/>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
-      <c r="AE14" s="101" t="s">
+      <c r="AE14" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="114"/>
-      <c r="AJ14" s="114"/>
-      <c r="AK14" s="115"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="117"/>
+      <c r="AJ14" s="117"/>
+      <c r="AK14" s="118"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
     </row>
@@ -33791,11 +34302,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AH10:AK10"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AE14:AG14"/>
@@ -33806,6 +34312,11 @@
     <mergeCell ref="AH14:AK14"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V10:X10"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="Y6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
